--- a/src/QckChi_result_5labels.xlsx
+++ b/src/QckChi_result_5labels.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="63">
   <si>
     <t xml:space="preserve">=====================</t>
   </si>
@@ -226,6 +226,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -325,11 +326,11 @@
       <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.95"/>
@@ -4451,13 +4452,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:N39"/>
+  <dimension ref="A2:N34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J41" activeCellId="0" sqref="J41"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
   </cols>
@@ -4818,33 +4819,33 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>48.089755</v>
+        <v>24.272042</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>48.152904</v>
-      </c>
-      <c r="D10" s="2" t="n">
+        <v>24.272042</v>
+      </c>
+      <c r="D10" s="2" t="str">
         <f aca="false">IF(B10&gt;C10,1,IF(B10=C10,"X",2))</f>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>80968.1</v>
+        <v>7451.9</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>80968.1</v>
-      </c>
-      <c r="G10" s="2" t="str">
+        <v>7455.8</v>
+      </c>
+      <c r="G10" s="2" t="n">
         <f aca="false">IF(E10&gt;F10,1,IF(E10=F10,"X",2))</f>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>6.116494</v>
+        <v>0.896667</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1679.771917</v>
+        <v>11.312957</v>
       </c>
       <c r="J10" s="2" t="n">
         <f aca="false">IF(H10&gt;I10,1,IF(H10=I10,"X",2))</f>
@@ -4852,48 +4853,48 @@
       </c>
       <c r="K10" s="3" t="n">
         <f aca="false">I10/H10</f>
-        <v>274.629864265378</v>
+        <v>12.6166759789309</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>96.332944</v>
+        <v>92.153073</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>96.459443</v>
-      </c>
-      <c r="N10" s="2" t="n">
+        <v>92.153073</v>
+      </c>
+      <c r="N10" s="2" t="str">
         <f aca="false">IF(L10&gt;M10,1,IF(L10=M10,"X",2))</f>
-        <v>2</v>
+        <v>X</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>18.181818</v>
+        <v>40.735069</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>18.518519</v>
+        <v>41.194487</v>
       </c>
       <c r="D11" s="2" t="n">
         <f aca="false">IF(B11&gt;C11,1,IF(B11=C11,"X",2))</f>
         <v>2</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>259.2</v>
+        <v>522.7</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>259.2</v>
+        <v>522.7</v>
       </c>
       <c r="G11" s="2" t="str">
         <f aca="false">IF(E11&gt;F11,1,IF(E11=F11,"X",2))</f>
         <v>X</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.004958</v>
+        <v>0.012359</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.022872</v>
+        <v>0.064123</v>
       </c>
       <c r="J11" s="2" t="n">
         <f aca="false">IF(H11&gt;I11,1,IF(H11=I11,"X",2))</f>
@@ -4901,13 +4902,13 @@
       </c>
       <c r="K11" s="3" t="n">
         <f aca="false">I11/H11</f>
-        <v>4.61315046389673</v>
+        <v>5.18836475442997</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>64.285714</v>
+        <v>85.530547</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>65.47619</v>
+        <v>86.495177</v>
       </c>
       <c r="N11" s="2" t="n">
         <f aca="false">IF(L11&gt;M11,1,IF(L11=M11,"X",2))</f>
@@ -4916,33 +4917,33 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>24.272042</v>
+        <v>94.666667</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>24.272042</v>
-      </c>
-      <c r="D12" s="2" t="str">
+        <v>95.333333</v>
+      </c>
+      <c r="D12" s="2" t="n">
         <f aca="false">IF(B12&gt;C12,1,IF(B12=C12,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f aca="false">IF(E12&gt;F12,1,IF(E12=F12,"X",2))</f>
         <v>X</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>7451.9</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>7455.8</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <f aca="false">IF(E12&gt;F12,1,IF(E12=F12,"X",2))</f>
-        <v>2</v>
-      </c>
       <c r="H12" s="0" t="n">
-        <v>0.896667</v>
+        <v>0.001175</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>11.312957</v>
+        <v>0.001914</v>
       </c>
       <c r="J12" s="2" t="n">
         <f aca="false">IF(H12&gt;I12,1,IF(H12=I12,"X",2))</f>
@@ -4950,48 +4951,48 @@
       </c>
       <c r="K12" s="3" t="n">
         <f aca="false">I12/H12</f>
-        <v>12.6166759789309</v>
+        <v>1.62893617021277</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>92.153073</v>
+        <v>94.666667</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>92.153073</v>
-      </c>
-      <c r="N12" s="2" t="str">
+        <v>95.333333</v>
+      </c>
+      <c r="N12" s="2" t="n">
         <f aca="false">IF(L12&gt;M12,1,IF(L12=M12,"X",2))</f>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>85.327614</v>
+        <v>77.43</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>83.502679</v>
+        <v>74.6</v>
       </c>
       <c r="D13" s="2" t="n">
         <f aca="false">IF(B13&gt;C13,1,IF(B13=C13,"X",2))</f>
         <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>23406</v>
+        <v>7488.1</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>23406</v>
-      </c>
-      <c r="G13" s="2" t="str">
+        <v>4962.3</v>
+      </c>
+      <c r="G13" s="2" t="n">
         <f aca="false">IF(E13&gt;F13,1,IF(E13=F13,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>22.943879</v>
+        <v>0.382329</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>2243.336409</v>
+        <v>34.050016</v>
       </c>
       <c r="J13" s="2" t="n">
         <f aca="false">IF(H13&gt;I13,1,IF(H13=I13,"X",2))</f>
@@ -4999,13 +5000,13 @@
       </c>
       <c r="K13" s="3" t="n">
         <f aca="false">I13/H13</f>
-        <v>97.7749407151249</v>
+        <v>89.0594644926228</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>85.336576</v>
+        <v>77.635735</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>83.511449</v>
+        <v>75.186454</v>
       </c>
       <c r="N13" s="2" t="n">
         <f aca="false">IF(L13&gt;M13,1,IF(L13=M13,"X",2))</f>
@@ -5014,33 +5015,33 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>40.735069</v>
+        <v>81.629863</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>41.194487</v>
+        <v>80.799159</v>
       </c>
       <c r="D14" s="2" t="n">
         <f aca="false">IF(B14&gt;C14,1,IF(B14=C14,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>522.7</v>
+        <v>1912.4</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>522.7</v>
+        <v>1912.4</v>
       </c>
       <c r="G14" s="2" t="str">
         <f aca="false">IF(E14&gt;F14,1,IF(E14=F14,"X",2))</f>
         <v>X</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.012359</v>
+        <v>0.217228</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.064123</v>
+        <v>7.052754</v>
       </c>
       <c r="J14" s="2" t="n">
         <f aca="false">IF(H14&gt;I14,1,IF(H14=I14,"X",2))</f>
@@ -5048,48 +5049,48 @@
       </c>
       <c r="K14" s="3" t="n">
         <f aca="false">I14/H14</f>
-        <v>5.18836475442997</v>
+        <v>32.4670576537095</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>85.530547</v>
+        <v>81.702889</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>86.495177</v>
+        <v>80.871441</v>
       </c>
       <c r="N14" s="2" t="n">
         <f aca="false">IF(L14&gt;M14,1,IF(L14=M14,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>44.889976</v>
+        <v>95.348837</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>44.889976</v>
-      </c>
-      <c r="D15" s="2" t="str">
+        <v>91.162791</v>
+      </c>
+      <c r="D15" s="2" t="n">
         <f aca="false">IF(B15&gt;C15,1,IF(B15=C15,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>39933.7</v>
+        <v>48</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>39933.7</v>
+        <v>48</v>
       </c>
       <c r="G15" s="2" t="str">
         <f aca="false">IF(E15&gt;F15,1,IF(E15=F15,"X",2))</f>
         <v>X</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>2.333708</v>
+        <v>0.001298</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>371.45017</v>
+        <v>0.005417</v>
       </c>
       <c r="J15" s="2" t="n">
         <f aca="false">IF(H15&gt;I15,1,IF(H15=I15,"X",2))</f>
@@ -5097,48 +5098,48 @@
       </c>
       <c r="K15" s="3" t="n">
         <f aca="false">I15/H15</f>
-        <v>159.167372267653</v>
+        <v>4.173343605547</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>100</v>
+        <v>96.244131</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N15" s="2" t="str">
+        <v>92.018779</v>
+      </c>
+      <c r="N15" s="2" t="n">
         <f aca="false">IF(L15&gt;M15,1,IF(L15=M15,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>21.851852</v>
+        <v>76.86747</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>21.851852</v>
-      </c>
-      <c r="D16" s="2" t="str">
+        <v>76.746988</v>
+      </c>
+      <c r="D16" s="2" t="n">
         <f aca="false">IF(B16&gt;C16,1,IF(B16=C16,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>235.6</v>
+        <v>160</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="G16" s="2" t="str">
+        <v>159.6</v>
+      </c>
+      <c r="G16" s="2" t="n">
         <f aca="false">IF(E16&gt;F16,1,IF(E16=F16,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.00503</v>
+        <v>0.005635</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.019901</v>
+        <v>0.032833</v>
       </c>
       <c r="J16" s="2" t="n">
         <f aca="false">IF(H16&gt;I16,1,IF(H16=I16,"X",2))</f>
@@ -5146,48 +5147,48 @@
       </c>
       <c r="K16" s="3" t="n">
         <f aca="false">I16/H16</f>
-        <v>3.95646123260437</v>
+        <v>5.82661934338953</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>86.764706</v>
+        <v>83.072917</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>86.764706</v>
-      </c>
-      <c r="N16" s="2" t="str">
+        <v>82.942708</v>
+      </c>
+      <c r="N16" s="2" t="n">
         <f aca="false">IF(L16&gt;M16,1,IF(L16=M16,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>94.666667</v>
+        <v>94.38962</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>95.333333</v>
+        <v>93.896199</v>
       </c>
       <c r="D17" s="2" t="n">
         <f aca="false">IF(B17&gt;C17,1,IF(B17=C17,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>45.5</v>
+        <v>163.1</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="G17" s="2" t="str">
+        <v>161.9</v>
+      </c>
+      <c r="G17" s="2" t="n">
         <f aca="false">IF(E17&gt;F17,1,IF(E17=F17,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.001175</v>
+        <v>0.064551</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.001914</v>
+        <v>0.221444</v>
       </c>
       <c r="J17" s="2" t="n">
         <f aca="false">IF(H17&gt;I17,1,IF(H17=I17,"X",2))</f>
@@ -5195,48 +5196,48 @@
       </c>
       <c r="K17" s="3" t="n">
         <f aca="false">I17/H17</f>
-        <v>1.62893617021277</v>
+        <v>3.43052779972425</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>94.666667</v>
+        <v>94.579747</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>95.333333</v>
+        <v>94.085332</v>
       </c>
       <c r="N17" s="2" t="n">
         <f aca="false">IF(L17&gt;M17,1,IF(L17=M17,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>77.43</v>
+        <v>94.013828</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>74.6</v>
+        <v>94.304949</v>
       </c>
       <c r="D18" s="2" t="n">
         <f aca="false">IF(B18&gt;C18,1,IF(B18=C18,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>7488.1</v>
+        <v>7739</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>4962.3</v>
+        <v>7737.1</v>
       </c>
       <c r="G18" s="2" t="n">
         <f aca="false">IF(E18&gt;F18,1,IF(E18=F18,"X",2))</f>
         <v>1</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.382329</v>
+        <v>0.181449</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>34.050016</v>
+        <v>10.594656</v>
       </c>
       <c r="J18" s="2" t="n">
         <f aca="false">IF(H18&gt;I18,1,IF(H18=I18,"X",2))</f>
@@ -5244,48 +5245,48 @@
       </c>
       <c r="K18" s="3" t="n">
         <f aca="false">I18/H18</f>
-        <v>89.0594644926228</v>
+        <v>58.3891672040077</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>77.635735</v>
+        <v>98.91835</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>75.186454</v>
+        <v>99.224658</v>
       </c>
       <c r="N18" s="2" t="n">
         <f aca="false">IF(L18&gt;M18,1,IF(L18=M18,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>81.629863</v>
+        <v>80.588453</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>80.799159</v>
+        <v>78.663953</v>
       </c>
       <c r="D19" s="2" t="n">
         <f aca="false">IF(B19&gt;C19,1,IF(B19=C19,"X",2))</f>
         <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1912.4</v>
+        <v>228.2</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1912.4</v>
+        <v>228.2</v>
       </c>
       <c r="G19" s="2" t="str">
         <f aca="false">IF(E19&gt;F19,1,IF(E19=F19,"X",2))</f>
         <v>X</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.217228</v>
+        <v>0.038</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>7.052754</v>
+        <v>0.219135</v>
       </c>
       <c r="J19" s="2" t="n">
         <f aca="false">IF(H19&gt;I19,1,IF(H19=I19,"X",2))</f>
@@ -5293,13 +5294,13 @@
       </c>
       <c r="K19" s="3" t="n">
         <f aca="false">I19/H19</f>
-        <v>32.4670576537095</v>
+        <v>5.76671052631579</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>81.702889</v>
+        <v>80.588453</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>80.871441</v>
+        <v>78.663953</v>
       </c>
       <c r="N19" s="2" t="n">
         <f aca="false">IF(L19&gt;M19,1,IF(L19=M19,"X",2))</f>
@@ -5308,33 +5309,33 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>95.348837</v>
+        <v>66.015625</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>91.162791</v>
+        <v>70.572917</v>
       </c>
       <c r="D20" s="2" t="n">
         <f aca="false">IF(B20&gt;C20,1,IF(B20=C20,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>48</v>
+        <v>426.6</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>48</v>
+        <v>426.6</v>
       </c>
       <c r="G20" s="2" t="str">
         <f aca="false">IF(E20&gt;F20,1,IF(E20=F20,"X",2))</f>
         <v>X</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.001298</v>
+        <v>0.008436</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.005417</v>
+        <v>0.062232</v>
       </c>
       <c r="J20" s="2" t="n">
         <f aca="false">IF(H20&gt;I20,1,IF(H20=I20,"X",2))</f>
@@ -5342,48 +5343,48 @@
       </c>
       <c r="K20" s="3" t="n">
         <f aca="false">I20/H20</f>
-        <v>4.173343605547</v>
+        <v>7.37695590327169</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>96.244131</v>
+        <v>68.236878</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>92.018779</v>
+        <v>72.94751</v>
       </c>
       <c r="N20" s="2" t="n">
         <f aca="false">IF(L20&gt;M20,1,IF(L20=M20,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>76.86747</v>
+        <v>54.621622</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>76.746988</v>
+        <v>53.243243</v>
       </c>
       <c r="D21" s="2" t="n">
         <f aca="false">IF(B21&gt;C21,1,IF(B21=C21,"X",2))</f>
         <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>160</v>
+        <v>5059.5</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>159.6</v>
-      </c>
-      <c r="G21" s="2" t="n">
+        <v>5059.5</v>
+      </c>
+      <c r="G21" s="2" t="str">
         <f aca="false">IF(E21&gt;F21,1,IF(E21=F21,"X",2))</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.005635</v>
+        <v>0.172239</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.032833</v>
+        <v>11.32908</v>
       </c>
       <c r="J21" s="2" t="n">
         <f aca="false">IF(H21&gt;I21,1,IF(H21=I21,"X",2))</f>
@@ -5391,13 +5392,13 @@
       </c>
       <c r="K21" s="3" t="n">
         <f aca="false">I21/H21</f>
-        <v>5.82661934338953</v>
+        <v>65.7753470468361</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>83.072917</v>
+        <v>79.053393</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>82.942708</v>
+        <v>77.058478</v>
       </c>
       <c r="N21" s="2" t="n">
         <f aca="false">IF(L21&gt;M21,1,IF(L21=M21,"X",2))</f>
@@ -5406,33 +5407,33 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>94.38962</v>
+        <v>60.822511</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>93.896199</v>
+        <v>62.121212</v>
       </c>
       <c r="D22" s="2" t="n">
         <f aca="false">IF(B22&gt;C22,1,IF(B22=C22,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>163.1</v>
+        <v>354</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>161.9</v>
-      </c>
-      <c r="G22" s="2" t="n">
+        <v>354</v>
+      </c>
+      <c r="G22" s="2" t="str">
         <f aca="false">IF(E22&gt;F22,1,IF(E22=F22,"X",2))</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.064551</v>
+        <v>0.006775</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0.221444</v>
+        <v>0.050998</v>
       </c>
       <c r="J22" s="2" t="n">
         <f aca="false">IF(H22&gt;I22,1,IF(H22=I22,"X",2))</f>
@@ -5440,48 +5441,48 @@
       </c>
       <c r="K22" s="3" t="n">
         <f aca="false">I22/H22</f>
-        <v>3.43052779972425</v>
+        <v>7.52738007380074</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>94.579747</v>
+        <v>65.046296</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>94.085332</v>
+        <v>66.435185</v>
       </c>
       <c r="N22" s="2" t="n">
         <f aca="false">IF(L22&gt;M22,1,IF(L22=M22,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>94.013828</v>
+        <v>64.832945</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>94.304949</v>
+        <v>51.235431</v>
       </c>
       <c r="D23" s="2" t="n">
         <f aca="false">IF(B23&gt;C23,1,IF(B23=C23,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>7739</v>
+        <v>2137.4</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>7737.1</v>
+        <v>1859.1</v>
       </c>
       <c r="G23" s="2" t="n">
         <f aca="false">IF(E23&gt;F23,1,IF(E23=F23,"X",2))</f>
         <v>1</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.181449</v>
+        <v>0.256571</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>10.594656</v>
+        <v>15.075422</v>
       </c>
       <c r="J23" s="2" t="n">
         <f aca="false">IF(H23&gt;I23,1,IF(H23=I23,"X",2))</f>
@@ -5489,48 +5490,48 @@
       </c>
       <c r="K23" s="3" t="n">
         <f aca="false">I23/H23</f>
-        <v>58.3891672040077</v>
+        <v>58.7573108418333</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>98.91835</v>
+        <v>65.228268</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>99.224658</v>
+        <v>51.620479</v>
       </c>
       <c r="N23" s="2" t="n">
         <f aca="false">IF(L23&gt;M23,1,IF(L23=M23,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>80.588453</v>
+        <v>90.38961</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>78.663953</v>
+        <v>88.484848</v>
       </c>
       <c r="D24" s="2" t="n">
         <f aca="false">IF(B24&gt;C24,1,IF(B24=C24,"X",2))</f>
         <v>1</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>228.2</v>
+        <v>884.9</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>228.2</v>
-      </c>
-      <c r="G24" s="2" t="str">
+        <v>863.3</v>
+      </c>
+      <c r="G24" s="2" t="n">
         <f aca="false">IF(E24&gt;F24,1,IF(E24=F24,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.038</v>
+        <v>0.049834</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0.219135</v>
+        <v>0.407013</v>
       </c>
       <c r="J24" s="2" t="n">
         <f aca="false">IF(H24&gt;I24,1,IF(H24=I24,"X",2))</f>
@@ -5538,13 +5539,13 @@
       </c>
       <c r="K24" s="3" t="n">
         <f aca="false">I24/H24</f>
-        <v>5.76671052631579</v>
+        <v>8.16737568728177</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>80.588453</v>
+        <v>93.422819</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>78.663953</v>
+        <v>91.53605</v>
       </c>
       <c r="N24" s="2" t="n">
         <f aca="false">IF(L24&gt;M24,1,IF(L24=M24,"X",2))</f>
@@ -5553,33 +5554,33 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>66.015625</v>
+        <v>92.424007</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>70.572917</v>
+        <v>84.241108</v>
       </c>
       <c r="D25" s="2" t="n">
         <f aca="false">IF(B25&gt;C25,1,IF(B25=C25,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>426.6</v>
+        <v>71.9</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>426.6</v>
-      </c>
-      <c r="G25" s="2" t="str">
+        <v>70.1</v>
+      </c>
+      <c r="G25" s="2" t="n">
         <f aca="false">IF(E25&gt;F25,1,IF(E25=F25,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.008436</v>
+        <v>0.61837</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0.062232</v>
+        <v>1.451691</v>
       </c>
       <c r="J25" s="2" t="n">
         <f aca="false">IF(H25&gt;I25,1,IF(H25=I25,"X",2))</f>
@@ -5587,48 +5588,48 @@
       </c>
       <c r="K25" s="3" t="n">
         <f aca="false">I25/H25</f>
-        <v>7.37695590327169</v>
+        <v>2.3476090366609</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>68.236878</v>
+        <v>92.435163</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>72.94751</v>
+        <v>84.251276</v>
       </c>
       <c r="N25" s="2" t="n">
         <f aca="false">IF(L25&gt;M25,1,IF(L25=M25,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>54.621622</v>
+        <v>80.661301</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>53.243243</v>
-      </c>
-      <c r="D26" s="2" t="n">
+        <v>80.661301</v>
+      </c>
+      <c r="D26" s="2" t="str">
         <f aca="false">IF(B26&gt;C26,1,IF(B26=C26,"X",2))</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>5059.5</v>
+        <v>1379.5</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>5059.5</v>
-      </c>
-      <c r="G26" s="2" t="str">
+        <v>1379.6</v>
+      </c>
+      <c r="G26" s="2" t="n">
         <f aca="false">IF(E26&gt;F26,1,IF(E26=F26,"X",2))</f>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.172239</v>
+        <v>0.28493</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>11.32908</v>
+        <v>3.755089</v>
       </c>
       <c r="J26" s="2" t="n">
         <f aca="false">IF(H26&gt;I26,1,IF(H26=I26,"X",2))</f>
@@ -5636,48 +5637,48 @@
       </c>
       <c r="K26" s="3" t="n">
         <f aca="false">I26/H26</f>
-        <v>65.7753470468361</v>
+        <v>13.1789878215702</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>79.053393</v>
+        <v>84.657534</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>77.058478</v>
-      </c>
-      <c r="N26" s="2" t="n">
+        <v>84.657534</v>
+      </c>
+      <c r="N26" s="2" t="str">
         <f aca="false">IF(L26&gt;M26,1,IF(L26=M26,"X",2))</f>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>60.822511</v>
+        <v>87.4</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>62.121212</v>
+        <v>85.836364</v>
       </c>
       <c r="D27" s="2" t="n">
         <f aca="false">IF(B27&gt;C27,1,IF(B27=C27,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>354</v>
+        <v>3694.8</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>354</v>
-      </c>
-      <c r="G27" s="2" t="str">
+        <v>3473.3</v>
+      </c>
+      <c r="G27" s="2" t="n">
         <f aca="false">IF(E27&gt;F27,1,IF(E27=F27,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.006775</v>
+        <v>0.25783</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0.050998</v>
+        <v>10.716644</v>
       </c>
       <c r="J27" s="2" t="n">
         <f aca="false">IF(H27&gt;I27,1,IF(H27=I27,"X",2))</f>
@@ -5685,48 +5686,48 @@
       </c>
       <c r="K27" s="3" t="n">
         <f aca="false">I27/H27</f>
-        <v>7.52738007380074</v>
+        <v>41.5647674824497</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>65.046296</v>
+        <v>93.104784</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>66.435185</v>
+        <v>91.634317</v>
       </c>
       <c r="N27" s="2" t="n">
         <f aca="false">IF(L27&gt;M27,1,IF(L27=M27,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>64.832945</v>
+        <v>91.958333</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>51.235431</v>
+        <v>92.097222</v>
       </c>
       <c r="D28" s="2" t="n">
         <f aca="false">IF(B28&gt;C28,1,IF(B28=C28,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>2137.4</v>
+        <v>941.2</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1859.1</v>
+        <v>943.9</v>
       </c>
       <c r="G28" s="2" t="n">
         <f aca="false">IF(E28&gt;F28,1,IF(E28=F28,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.256571</v>
+        <v>0.131644</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>15.075422</v>
+        <v>1.259747</v>
       </c>
       <c r="J28" s="2" t="n">
         <f aca="false">IF(H28&gt;I28,1,IF(H28=I28,"X",2))</f>
@@ -5734,48 +5735,48 @@
       </c>
       <c r="K28" s="3" t="n">
         <f aca="false">I28/H28</f>
-        <v>58.7573108418333</v>
+        <v>9.5693461152806</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>65.228268</v>
+        <v>93.214135</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>51.620479</v>
+        <v>93.35492</v>
       </c>
       <c r="N28" s="2" t="n">
         <f aca="false">IF(L28&gt;M28,1,IF(L28=M28,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>90.38961</v>
+        <v>34.135135</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>88.484848</v>
+        <v>34.932432</v>
       </c>
       <c r="D29" s="2" t="n">
         <f aca="false">IF(B29&gt;C29,1,IF(B29=C29,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>884.9</v>
+        <v>6654.2</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>863.3</v>
-      </c>
-      <c r="G29" s="2" t="n">
+        <v>6654.2</v>
+      </c>
+      <c r="G29" s="2" t="str">
         <f aca="false">IF(E29&gt;F29,1,IF(E29=F29,"X",2))</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.049834</v>
+        <v>0.175404</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0.407013</v>
+        <v>11.331774</v>
       </c>
       <c r="J29" s="2" t="n">
         <f aca="false">IF(H29&gt;I29,1,IF(H29=I29,"X",2))</f>
@@ -5783,48 +5784,48 @@
       </c>
       <c r="K29" s="3" t="n">
         <f aca="false">I29/H29</f>
-        <v>8.16737568728177</v>
+        <v>64.6038516795512</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>93.422819</v>
+        <v>90.994236</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>91.53605</v>
+        <v>93.119597</v>
       </c>
       <c r="N29" s="2" t="n">
         <f aca="false">IF(L29&gt;M29,1,IF(L29=M29,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>92.424007</v>
+        <v>51.891253</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>84.241108</v>
+        <v>54.491726</v>
       </c>
       <c r="D30" s="2" t="n">
         <f aca="false">IF(B30&gt;C30,1,IF(B30=C30,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>71.9</v>
+        <v>707.8</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>70.1</v>
+        <v>683.2</v>
       </c>
       <c r="G30" s="2" t="n">
         <f aca="false">IF(E30&gt;F30,1,IF(E30=F30,"X",2))</f>
         <v>1</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.61837</v>
+        <v>0.0187</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>1.451691</v>
+        <v>0.187486</v>
       </c>
       <c r="J30" s="2" t="n">
         <f aca="false">IF(H30&gt;I30,1,IF(H30=I30,"X",2))</f>
@@ -5832,48 +5833,48 @@
       </c>
       <c r="K30" s="3" t="n">
         <f aca="false">I30/H30</f>
-        <v>2.3476090366609</v>
+        <v>10.0259893048128</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>92.435163</v>
+        <v>63.531114</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>84.251276</v>
+        <v>67.103348</v>
       </c>
       <c r="N30" s="2" t="n">
         <f aca="false">IF(L30&gt;M30,1,IF(L30=M30,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>80.661301</v>
+        <v>93.434343</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>80.661301</v>
-      </c>
-      <c r="D31" s="2" t="str">
+        <v>93.030303</v>
+      </c>
+      <c r="D31" s="2" t="n">
         <f aca="false">IF(B31&gt;C31,1,IF(B31=C31,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1379.5</v>
+        <v>649.7</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1379.6</v>
+        <v>638.8</v>
       </c>
       <c r="G31" s="2" t="n">
         <f aca="false">IF(E31&gt;F31,1,IF(E31=F31,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.28493</v>
+        <v>0.014694</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>3.755089</v>
+        <v>0.134568</v>
       </c>
       <c r="J31" s="2" t="n">
         <f aca="false">IF(H31&gt;I31,1,IF(H31=I31,"X",2))</f>
@@ -5881,48 +5882,48 @@
       </c>
       <c r="K31" s="3" t="n">
         <f aca="false">I31/H31</f>
-        <v>13.1789878215702</v>
+        <v>9.15802368313597</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>84.657534</v>
+        <v>93.718338</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>84.657534</v>
-      </c>
-      <c r="N31" s="2" t="str">
+        <v>93.31307</v>
+      </c>
+      <c r="N31" s="2" t="n">
         <f aca="false">IF(L31&gt;M31,1,IF(L31=M31,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>87.4</v>
+        <v>56.785491</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>85.836364</v>
+        <v>59.59975</v>
       </c>
       <c r="D32" s="2" t="n">
         <f aca="false">IF(B32&gt;C32,1,IF(B32=C32,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>3694.8</v>
+        <v>763.4</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>3473.3</v>
+        <v>614.2</v>
       </c>
       <c r="G32" s="2" t="n">
         <f aca="false">IF(E32&gt;F32,1,IF(E32=F32,"X",2))</f>
         <v>1</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.25783</v>
+        <v>0.025199</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>10.716644</v>
+        <v>0.28823</v>
       </c>
       <c r="J32" s="2" t="n">
         <f aca="false">IF(H32&gt;I32,1,IF(H32=I32,"X",2))</f>
@@ -5930,48 +5931,48 @@
       </c>
       <c r="K32" s="3" t="n">
         <f aca="false">I32/H32</f>
-        <v>41.5647674824497</v>
+        <v>11.4381523076313</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>93.104784</v>
+        <v>57.614213</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>91.634317</v>
+        <v>60.469543</v>
       </c>
       <c r="N32" s="2" t="n">
         <f aca="false">IF(L32&gt;M32,1,IF(L32=M32,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>91.958333</v>
+        <v>49.795835</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>92.097222</v>
+        <v>53.082891</v>
       </c>
       <c r="D33" s="2" t="n">
         <f aca="false">IF(B33&gt;C33,1,IF(B33=C33,"X",2))</f>
         <v>2</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>941.2</v>
+        <v>1043.2</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>943.9</v>
+        <v>651.5</v>
       </c>
       <c r="G33" s="2" t="n">
         <f aca="false">IF(E33&gt;F33,1,IF(E33=F33,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.131644</v>
+        <v>0.065467</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>1.259747</v>
+        <v>1.702653</v>
       </c>
       <c r="J33" s="2" t="n">
         <f aca="false">IF(H33&gt;I33,1,IF(H33=I33,"X",2))</f>
@@ -5979,13 +5980,13 @@
       </c>
       <c r="K33" s="3" t="n">
         <f aca="false">I33/H33</f>
-        <v>9.5693461152806</v>
+        <v>26.007805459239</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>93.214135</v>
+        <v>49.897709</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>93.35492</v>
+        <v>53.213262</v>
       </c>
       <c r="N33" s="2" t="n">
         <f aca="false">IF(L33&gt;M33,1,IF(L33=M33,"X",2))</f>
@@ -5993,286 +5994,41 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="B34" s="0" t="n">
-        <v>34.135135</v>
+        <f aca="false">AVERAGE(B4:B33)</f>
+        <v>67.3652935333333</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>34.932432</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <f aca="false">IF(B34&gt;C34,1,IF(B34=C34,"X",2))</f>
-        <v>2</v>
+        <f aca="false">AVERAGE(C4:C33)</f>
+        <v>66.3727878666667</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>6654.2</v>
+        <f aca="false">AVERAGE(E4:E33)</f>
+        <v>2380.35666666667</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>6654.2</v>
-      </c>
-      <c r="G34" s="2" t="str">
-        <f aca="false">IF(E34&gt;F34,1,IF(E34=F34,"X",2))</f>
-        <v>X</v>
+        <f aca="false">AVERAGE(F4:F33)</f>
+        <v>2255.93333333333</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.175404</v>
+        <f aca="false">AVERAGE(H4:H33)</f>
+        <v>0.155357433333333</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>11.331774</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <f aca="false">IF(H34&gt;I34,1,IF(H34=I34,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K34" s="3" t="n">
-        <f aca="false">I34/H34</f>
-        <v>64.6038516795512</v>
+        <f aca="false">AVERAGE(I4:I33)</f>
+        <v>9.0555488</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <f aca="false">AVERAGE(K4:K33)</f>
+        <v>26.4479241513589</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>90.994236</v>
+        <f aca="false">AVERAGE(L4:L33)</f>
+        <v>78.5396409666667</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>93.119597</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <f aca="false">IF(L34&gt;M34,1,IF(L34=M34,"X",2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>51.891253</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>54.491726</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <f aca="false">IF(B35&gt;C35,1,IF(B35=C35,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>707.8</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>683.2</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <f aca="false">IF(E35&gt;F35,1,IF(E35=F35,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>0.0187</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>0.187486</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <f aca="false">IF(H35&gt;I35,1,IF(H35=I35,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K35" s="3" t="n">
-        <f aca="false">I35/H35</f>
-        <v>10.0259893048128</v>
-      </c>
-      <c r="L35" s="0" t="n">
-        <v>63.531114</v>
-      </c>
-      <c r="M35" s="0" t="n">
-        <v>67.103348</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <f aca="false">IF(L35&gt;M35,1,IF(L35=M35,"X",2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>93.434343</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>93.030303</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <f aca="false">IF(B36&gt;C36,1,IF(B36=C36,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>649.7</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>638.8</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <f aca="false">IF(E36&gt;F36,1,IF(E36=F36,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0.014694</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>0.134568</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <f aca="false">IF(H36&gt;I36,1,IF(H36=I36,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K36" s="3" t="n">
-        <f aca="false">I36/H36</f>
-        <v>9.15802368313597</v>
-      </c>
-      <c r="L36" s="0" t="n">
-        <v>93.718338</v>
-      </c>
-      <c r="M36" s="0" t="n">
-        <v>93.31307</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <f aca="false">IF(L36&gt;M36,1,IF(L36=M36,"X",2))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>56.785491</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>59.59975</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <f aca="false">IF(B37&gt;C37,1,IF(B37=C37,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>763.4</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>614.2</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <f aca="false">IF(E37&gt;F37,1,IF(E37=F37,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0.025199</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0.28823</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <f aca="false">IF(H37&gt;I37,1,IF(H37=I37,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K37" s="3" t="n">
-        <f aca="false">I37/H37</f>
-        <v>11.4381523076313</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>57.614213</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>60.469543</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <f aca="false">IF(L37&gt;M37,1,IF(L37=M37,"X",2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>49.795835</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>53.082891</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <f aca="false">IF(B38&gt;C38,1,IF(B38=C38,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>1043.2</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>651.5</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <f aca="false">IF(E38&gt;F38,1,IF(E38=F38,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0.065467</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>1.702653</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <f aca="false">IF(H38&gt;I38,1,IF(H38=I38,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K38" s="3" t="n">
-        <f aca="false">I38/H38</f>
-        <v>26.007805459239</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <v>49.897709</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <v>53.213262</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <f aca="false">IF(L38&gt;M38,1,IF(L38=M38,"X",2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="n">
-        <f aca="false">AVERAGE(B4:B38)</f>
-        <v>63.9799948857143</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <f aca="false">AVERAGE(C4:C38)</f>
-        <v>63.0885590285714</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <f aca="false">AVERAGE(E4:E38)</f>
-        <v>6177.52285714286</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <f aca="false">AVERAGE(F4:F38)</f>
-        <v>6070.87428571429</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <f aca="false">AVERAGE(H4:H38)</f>
-        <v>1.03042262857143</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <f aca="false">AVERAGE(I4:I38)</f>
-        <v>130.464792371429</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <f aca="false">AVERAGE(K4:K38)</f>
-        <v>38.1022718138693</v>
-      </c>
-      <c r="L39" s="0" t="n">
-        <f aca="false">AVERAGE(L4:L38)</f>
-        <v>79.6831191142857</v>
-      </c>
-      <c r="M39" s="0" t="n">
-        <f aca="false">AVERAGE(M4:M38)</f>
-        <v>79.6969927428571</v>
+        <f aca="false">AVERAGE(M4:M33)</f>
+        <v>78.5727652666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/QckChi_result_5labels.xlsx
+++ b/src/QckChi_result_5labels.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="QckChi_result_5labels" sheetId="1" state="visible" r:id="rId2"/>
@@ -295,12 +295,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -320,17 +320,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.95"/>
@@ -2391,6 +2391,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="2" t="n">
+        <f aca="false">AVERAGE(F3:F37)</f>
+        <v>6070.87428571429</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <f aca="false">AVERAGE(G3:G37)</f>
+        <v>90.3412571428571</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <f aca="false">AVERAGE(H3:H37)</f>
+        <v>9.65874285714286</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <f aca="false">AVERAGE(I3:I37)</f>
+        <v>63.0885590285714</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <f aca="false">AVERAGE(J3:J37)</f>
+        <v>79.6969927428571</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <f aca="false">AVERAGE(K3:K37)</f>
+        <v>20.3030072571429</v>
+      </c>
+      <c r="L38" s="2" t="n">
+        <f aca="false">AVERAGE(L3:L37)</f>
+        <v>21.7696070857143</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <f aca="false">AVERAGE(M3:M37)</f>
+        <v>130.464792371429</v>
+      </c>
+    </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>0</v>
@@ -4434,6 +4468,40 @@
       </c>
       <c r="R75" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F76" s="2" t="n">
+        <f aca="false">AVERAGE(F41:F75)</f>
+        <v>6177.52285714286</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <f aca="false">AVERAGE(G41:G75)</f>
+        <v>90.3412571428571</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <f aca="false">AVERAGE(H41:H75)</f>
+        <v>9.65874285714286</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <f aca="false">AVERAGE(I41:I75)</f>
+        <v>63.9799948857143</v>
+      </c>
+      <c r="J76" s="2" t="n">
+        <f aca="false">AVERAGE(J41:J75)</f>
+        <v>79.6831191142857</v>
+      </c>
+      <c r="K76" s="2" t="n">
+        <f aca="false">AVERAGE(K41:K75)</f>
+        <v>20.3168808857143</v>
+      </c>
+      <c r="L76" s="2" t="n">
+        <f aca="false">AVERAGE(L41:L75)</f>
+        <v>18.9831499142857</v>
+      </c>
+      <c r="M76" s="2" t="n">
+        <f aca="false">AVERAGE(M41:M75)</f>
+        <v>1.03042262857143</v>
       </c>
     </row>
   </sheetData>
@@ -4454,11 +4522,11 @@
   </sheetPr>
   <dimension ref="A2:N34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="1" sqref="4:4 A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
   </cols>
@@ -4470,7 +4538,7 @@
       <c r="C2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="0" t="s">
         <v>60</v>
       </c>
@@ -4483,7 +4551,7 @@
       <c r="I2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="0" t="s">
         <v>60</v>
       </c>
@@ -4533,7 +4601,7 @@
       <c r="C4" s="0" t="n">
         <v>1.054145</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <f aca="false">IF(B4&gt;C4,1,IF(B4=C4,"X",2))</f>
         <v>1</v>
       </c>
@@ -4543,7 +4611,7 @@
       <c r="F4" s="0" t="n">
         <v>12.2</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="3" t="n">
         <f aca="false">IF(E4&gt;F4,1,IF(E4=F4,"X",2))</f>
         <v>1</v>
       </c>
@@ -4553,11 +4621,11 @@
       <c r="I4" s="0" t="n">
         <v>0.163821</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="3" t="n">
         <f aca="false">IF(H4&gt;I4,1,IF(H4=I4,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="2" t="n">
         <f aca="false">I4/H4</f>
         <v>4.44380849043808</v>
       </c>
@@ -4567,7 +4635,7 @@
       <c r="M4" s="0" t="n">
         <v>27.672956</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="N4" s="3" t="n">
         <f aca="false">IF(L4&gt;M4,1,IF(L4=M4,"X",2))</f>
         <v>2</v>
       </c>
@@ -4582,7 +4650,7 @@
       <c r="C5" s="0" t="n">
         <v>64.380169</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <f aca="false">IF(B5&gt;C5,1,IF(B5=C5,"X",2))</f>
         <v>2</v>
       </c>
@@ -4592,7 +4660,7 @@
       <c r="F5" s="0" t="n">
         <v>19796.4</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="3" t="str">
         <f aca="false">IF(E5&gt;F5,1,IF(E5=F5,"X",2))</f>
         <v>X</v>
       </c>
@@ -4602,11 +4670,11 @@
       <c r="I5" s="0" t="n">
         <v>150.038856</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="3" t="n">
         <f aca="false">IF(H5&gt;I5,1,IF(H5=I5,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="2" t="n">
         <f aca="false">I5/H5</f>
         <v>216.865537716159</v>
       </c>
@@ -4616,7 +4684,7 @@
       <c r="M5" s="0" t="n">
         <v>81.879799</v>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="N5" s="3" t="n">
         <f aca="false">IF(L5&gt;M5,1,IF(L5=M5,"X",2))</f>
         <v>2</v>
       </c>
@@ -4631,7 +4699,7 @@
       <c r="C6" s="0" t="n">
         <v>54.637681</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="3" t="str">
         <f aca="false">IF(B6&gt;C6,1,IF(B6=C6,"X",2))</f>
         <v>X</v>
       </c>
@@ -4641,7 +4709,7 @@
       <c r="F6" s="0" t="n">
         <v>498.9</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="3" t="str">
         <f aca="false">IF(E6&gt;F6,1,IF(E6=F6,"X",2))</f>
         <v>X</v>
       </c>
@@ -4651,11 +4719,11 @@
       <c r="I6" s="0" t="n">
         <v>0.07474</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="3" t="n">
         <f aca="false">IF(H6&gt;I6,1,IF(H6=I6,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="2" t="n">
         <f aca="false">I6/H6</f>
         <v>7.59089985781028</v>
       </c>
@@ -4665,7 +4733,7 @@
       <c r="M6" s="0" t="n">
         <v>82.857143</v>
       </c>
-      <c r="N6" s="2" t="str">
+      <c r="N6" s="3" t="str">
         <f aca="false">IF(L6&gt;M6,1,IF(L6=M6,"X",2))</f>
         <v>X</v>
       </c>
@@ -4680,7 +4748,7 @@
       <c r="C7" s="0" t="n">
         <v>80.358491</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <f aca="false">IF(B7&gt;C7,1,IF(B7=C7,"X",2))</f>
         <v>2</v>
       </c>
@@ -4690,7 +4758,7 @@
       <c r="F7" s="0" t="n">
         <v>19.6</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="3" t="str">
         <f aca="false">IF(E7&gt;F7,1,IF(E7=F7,"X",2))</f>
         <v>X</v>
       </c>
@@ -4700,11 +4768,11 @@
       <c r="I7" s="0" t="n">
         <v>0.041358</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="3" t="n">
         <f aca="false">IF(H7&gt;I7,1,IF(H7=I7,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="2" t="n">
         <f aca="false">I7/H7</f>
         <v>1.69722586999343</v>
       </c>
@@ -4714,7 +4782,7 @@
       <c r="M7" s="0" t="n">
         <v>80.373655</v>
       </c>
-      <c r="N7" s="2" t="n">
+      <c r="N7" s="3" t="n">
         <f aca="false">IF(L7&gt;M7,1,IF(L7=M7,"X",2))</f>
         <v>2</v>
       </c>
@@ -4729,7 +4797,7 @@
       <c r="C8" s="0" t="n">
         <v>16.438356</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <f aca="false">IF(B8&gt;C8,1,IF(B8=C8,"X",2))</f>
         <v>2</v>
       </c>
@@ -4739,7 +4807,7 @@
       <c r="F8" s="0" t="n">
         <v>325.3</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="3" t="str">
         <f aca="false">IF(E8&gt;F8,1,IF(E8=F8,"X",2))</f>
         <v>X</v>
       </c>
@@ -4749,11 +4817,11 @@
       <c r="I8" s="0" t="n">
         <v>0.028806</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="3" t="n">
         <f aca="false">IF(H8&gt;I8,1,IF(H8=I8,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="2" t="n">
         <f aca="false">I8/H8</f>
         <v>3.18439089100155</v>
       </c>
@@ -4763,7 +4831,7 @@
       <c r="M8" s="0" t="n">
         <v>65.217391</v>
       </c>
-      <c r="N8" s="2" t="n">
+      <c r="N8" s="3" t="n">
         <f aca="false">IF(L8&gt;M8,1,IF(L8=M8,"X",2))</f>
         <v>2</v>
       </c>
@@ -4778,7 +4846,7 @@
       <c r="C9" s="0" t="n">
         <v>59.710145</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <f aca="false">IF(B9&gt;C9,1,IF(B9=C9,"X",2))</f>
         <v>2</v>
       </c>
@@ -4788,7 +4856,7 @@
       <c r="F9" s="0" t="n">
         <v>120.8</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="3" t="str">
         <f aca="false">IF(E9&gt;F9,1,IF(E9=F9,"X",2))</f>
         <v>X</v>
       </c>
@@ -4798,11 +4866,11 @@
       <c r="I9" s="0" t="n">
         <v>0.011007</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="3" t="n">
         <f aca="false">IF(H9&gt;I9,1,IF(H9=I9,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="K9" s="2" t="n">
         <f aca="false">I9/H9</f>
         <v>5.61009174311927</v>
       </c>
@@ -4812,7 +4880,7 @@
       <c r="M9" s="0" t="n">
         <v>61.492537</v>
       </c>
-      <c r="N9" s="2" t="n">
+      <c r="N9" s="3" t="n">
         <f aca="false">IF(L9&gt;M9,1,IF(L9=M9,"X",2))</f>
         <v>2</v>
       </c>
@@ -4827,7 +4895,7 @@
       <c r="C10" s="0" t="n">
         <v>24.272042</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" s="3" t="str">
         <f aca="false">IF(B10&gt;C10,1,IF(B10=C10,"X",2))</f>
         <v>X</v>
       </c>
@@ -4837,7 +4905,7 @@
       <c r="F10" s="0" t="n">
         <v>7455.8</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="3" t="n">
         <f aca="false">IF(E10&gt;F10,1,IF(E10=F10,"X",2))</f>
         <v>2</v>
       </c>
@@ -4847,11 +4915,11 @@
       <c r="I10" s="0" t="n">
         <v>11.312957</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="3" t="n">
         <f aca="false">IF(H10&gt;I10,1,IF(H10=I10,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="2" t="n">
         <f aca="false">I10/H10</f>
         <v>12.6166759789309</v>
       </c>
@@ -4861,7 +4929,7 @@
       <c r="M10" s="0" t="n">
         <v>92.153073</v>
       </c>
-      <c r="N10" s="2" t="str">
+      <c r="N10" s="3" t="str">
         <f aca="false">IF(L10&gt;M10,1,IF(L10=M10,"X",2))</f>
         <v>X</v>
       </c>
@@ -4876,7 +4944,7 @@
       <c r="C11" s="0" t="n">
         <v>41.194487</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <f aca="false">IF(B11&gt;C11,1,IF(B11=C11,"X",2))</f>
         <v>2</v>
       </c>
@@ -4886,7 +4954,7 @@
       <c r="F11" s="0" t="n">
         <v>522.7</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="3" t="str">
         <f aca="false">IF(E11&gt;F11,1,IF(E11=F11,"X",2))</f>
         <v>X</v>
       </c>
@@ -4896,11 +4964,11 @@
       <c r="I11" s="0" t="n">
         <v>0.064123</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="3" t="n">
         <f aca="false">IF(H11&gt;I11,1,IF(H11=I11,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="K11" s="2" t="n">
         <f aca="false">I11/H11</f>
         <v>5.18836475442997</v>
       </c>
@@ -4910,7 +4978,7 @@
       <c r="M11" s="0" t="n">
         <v>86.495177</v>
       </c>
-      <c r="N11" s="2" t="n">
+      <c r="N11" s="3" t="n">
         <f aca="false">IF(L11&gt;M11,1,IF(L11=M11,"X",2))</f>
         <v>2</v>
       </c>
@@ -4925,7 +4993,7 @@
       <c r="C12" s="0" t="n">
         <v>95.333333</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <f aca="false">IF(B12&gt;C12,1,IF(B12=C12,"X",2))</f>
         <v>2</v>
       </c>
@@ -4935,7 +5003,7 @@
       <c r="F12" s="0" t="n">
         <v>45.5</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="3" t="str">
         <f aca="false">IF(E12&gt;F12,1,IF(E12=F12,"X",2))</f>
         <v>X</v>
       </c>
@@ -4945,11 +5013,11 @@
       <c r="I12" s="0" t="n">
         <v>0.001914</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="3" t="n">
         <f aca="false">IF(H12&gt;I12,1,IF(H12=I12,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="K12" s="2" t="n">
         <f aca="false">I12/H12</f>
         <v>1.62893617021277</v>
       </c>
@@ -4959,7 +5027,7 @@
       <c r="M12" s="0" t="n">
         <v>95.333333</v>
       </c>
-      <c r="N12" s="2" t="n">
+      <c r="N12" s="3" t="n">
         <f aca="false">IF(L12&gt;M12,1,IF(L12=M12,"X",2))</f>
         <v>2</v>
       </c>
@@ -4974,7 +5042,7 @@
       <c r="C13" s="0" t="n">
         <v>74.6</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="3" t="n">
         <f aca="false">IF(B13&gt;C13,1,IF(B13=C13,"X",2))</f>
         <v>1</v>
       </c>
@@ -4984,7 +5052,7 @@
       <c r="F13" s="0" t="n">
         <v>4962.3</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="3" t="n">
         <f aca="false">IF(E13&gt;F13,1,IF(E13=F13,"X",2))</f>
         <v>1</v>
       </c>
@@ -4994,11 +5062,11 @@
       <c r="I13" s="0" t="n">
         <v>34.050016</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="3" t="n">
         <f aca="false">IF(H13&gt;I13,1,IF(H13=I13,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="n">
+      <c r="K13" s="2" t="n">
         <f aca="false">I13/H13</f>
         <v>89.0594644926228</v>
       </c>
@@ -5008,7 +5076,7 @@
       <c r="M13" s="0" t="n">
         <v>75.186454</v>
       </c>
-      <c r="N13" s="2" t="n">
+      <c r="N13" s="3" t="n">
         <f aca="false">IF(L13&gt;M13,1,IF(L13=M13,"X",2))</f>
         <v>1</v>
       </c>
@@ -5023,7 +5091,7 @@
       <c r="C14" s="0" t="n">
         <v>80.799159</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="3" t="n">
         <f aca="false">IF(B14&gt;C14,1,IF(B14=C14,"X",2))</f>
         <v>1</v>
       </c>
@@ -5033,7 +5101,7 @@
       <c r="F14" s="0" t="n">
         <v>1912.4</v>
       </c>
-      <c r="G14" s="2" t="str">
+      <c r="G14" s="3" t="str">
         <f aca="false">IF(E14&gt;F14,1,IF(E14=F14,"X",2))</f>
         <v>X</v>
       </c>
@@ -5043,11 +5111,11 @@
       <c r="I14" s="0" t="n">
         <v>7.052754</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="3" t="n">
         <f aca="false">IF(H14&gt;I14,1,IF(H14=I14,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K14" s="3" t="n">
+      <c r="K14" s="2" t="n">
         <f aca="false">I14/H14</f>
         <v>32.4670576537095</v>
       </c>
@@ -5057,7 +5125,7 @@
       <c r="M14" s="0" t="n">
         <v>80.871441</v>
       </c>
-      <c r="N14" s="2" t="n">
+      <c r="N14" s="3" t="n">
         <f aca="false">IF(L14&gt;M14,1,IF(L14=M14,"X",2))</f>
         <v>1</v>
       </c>
@@ -5072,7 +5140,7 @@
       <c r="C15" s="0" t="n">
         <v>91.162791</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="3" t="n">
         <f aca="false">IF(B15&gt;C15,1,IF(B15=C15,"X",2))</f>
         <v>1</v>
       </c>
@@ -5082,7 +5150,7 @@
       <c r="F15" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="G15" s="3" t="str">
         <f aca="false">IF(E15&gt;F15,1,IF(E15=F15,"X",2))</f>
         <v>X</v>
       </c>
@@ -5092,11 +5160,11 @@
       <c r="I15" s="0" t="n">
         <v>0.005417</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="J15" s="3" t="n">
         <f aca="false">IF(H15&gt;I15,1,IF(H15=I15,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K15" s="3" t="n">
+      <c r="K15" s="2" t="n">
         <f aca="false">I15/H15</f>
         <v>4.173343605547</v>
       </c>
@@ -5106,7 +5174,7 @@
       <c r="M15" s="0" t="n">
         <v>92.018779</v>
       </c>
-      <c r="N15" s="2" t="n">
+      <c r="N15" s="3" t="n">
         <f aca="false">IF(L15&gt;M15,1,IF(L15=M15,"X",2))</f>
         <v>1</v>
       </c>
@@ -5121,7 +5189,7 @@
       <c r="C16" s="0" t="n">
         <v>76.746988</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="3" t="n">
         <f aca="false">IF(B16&gt;C16,1,IF(B16=C16,"X",2))</f>
         <v>1</v>
       </c>
@@ -5131,7 +5199,7 @@
       <c r="F16" s="0" t="n">
         <v>159.6</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="3" t="n">
         <f aca="false">IF(E16&gt;F16,1,IF(E16=F16,"X",2))</f>
         <v>1</v>
       </c>
@@ -5141,11 +5209,11 @@
       <c r="I16" s="0" t="n">
         <v>0.032833</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="J16" s="3" t="n">
         <f aca="false">IF(H16&gt;I16,1,IF(H16=I16,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K16" s="3" t="n">
+      <c r="K16" s="2" t="n">
         <f aca="false">I16/H16</f>
         <v>5.82661934338953</v>
       </c>
@@ -5155,7 +5223,7 @@
       <c r="M16" s="0" t="n">
         <v>82.942708</v>
       </c>
-      <c r="N16" s="2" t="n">
+      <c r="N16" s="3" t="n">
         <f aca="false">IF(L16&gt;M16,1,IF(L16=M16,"X",2))</f>
         <v>1</v>
       </c>
@@ -5170,7 +5238,7 @@
       <c r="C17" s="0" t="n">
         <v>93.896199</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="3" t="n">
         <f aca="false">IF(B17&gt;C17,1,IF(B17=C17,"X",2))</f>
         <v>1</v>
       </c>
@@ -5180,7 +5248,7 @@
       <c r="F17" s="0" t="n">
         <v>161.9</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="3" t="n">
         <f aca="false">IF(E17&gt;F17,1,IF(E17=F17,"X",2))</f>
         <v>1</v>
       </c>
@@ -5190,11 +5258,11 @@
       <c r="I17" s="0" t="n">
         <v>0.221444</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="J17" s="3" t="n">
         <f aca="false">IF(H17&gt;I17,1,IF(H17=I17,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K17" s="3" t="n">
+      <c r="K17" s="2" t="n">
         <f aca="false">I17/H17</f>
         <v>3.43052779972425</v>
       </c>
@@ -5204,7 +5272,7 @@
       <c r="M17" s="0" t="n">
         <v>94.085332</v>
       </c>
-      <c r="N17" s="2" t="n">
+      <c r="N17" s="3" t="n">
         <f aca="false">IF(L17&gt;M17,1,IF(L17=M17,"X",2))</f>
         <v>1</v>
       </c>
@@ -5219,7 +5287,7 @@
       <c r="C18" s="0" t="n">
         <v>94.304949</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="3" t="n">
         <f aca="false">IF(B18&gt;C18,1,IF(B18=C18,"X",2))</f>
         <v>2</v>
       </c>
@@ -5229,7 +5297,7 @@
       <c r="F18" s="0" t="n">
         <v>7737.1</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="3" t="n">
         <f aca="false">IF(E18&gt;F18,1,IF(E18=F18,"X",2))</f>
         <v>1</v>
       </c>
@@ -5239,11 +5307,11 @@
       <c r="I18" s="0" t="n">
         <v>10.594656</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="J18" s="3" t="n">
         <f aca="false">IF(H18&gt;I18,1,IF(H18=I18,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K18" s="3" t="n">
+      <c r="K18" s="2" t="n">
         <f aca="false">I18/H18</f>
         <v>58.3891672040077</v>
       </c>
@@ -5253,7 +5321,7 @@
       <c r="M18" s="0" t="n">
         <v>99.224658</v>
       </c>
-      <c r="N18" s="2" t="n">
+      <c r="N18" s="3" t="n">
         <f aca="false">IF(L18&gt;M18,1,IF(L18=M18,"X",2))</f>
         <v>2</v>
       </c>
@@ -5268,7 +5336,7 @@
       <c r="C19" s="0" t="n">
         <v>78.663953</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="3" t="n">
         <f aca="false">IF(B19&gt;C19,1,IF(B19=C19,"X",2))</f>
         <v>1</v>
       </c>
@@ -5278,7 +5346,7 @@
       <c r="F19" s="0" t="n">
         <v>228.2</v>
       </c>
-      <c r="G19" s="2" t="str">
+      <c r="G19" s="3" t="str">
         <f aca="false">IF(E19&gt;F19,1,IF(E19=F19,"X",2))</f>
         <v>X</v>
       </c>
@@ -5288,11 +5356,11 @@
       <c r="I19" s="0" t="n">
         <v>0.219135</v>
       </c>
-      <c r="J19" s="2" t="n">
+      <c r="J19" s="3" t="n">
         <f aca="false">IF(H19&gt;I19,1,IF(H19=I19,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K19" s="3" t="n">
+      <c r="K19" s="2" t="n">
         <f aca="false">I19/H19</f>
         <v>5.76671052631579</v>
       </c>
@@ -5302,7 +5370,7 @@
       <c r="M19" s="0" t="n">
         <v>78.663953</v>
       </c>
-      <c r="N19" s="2" t="n">
+      <c r="N19" s="3" t="n">
         <f aca="false">IF(L19&gt;M19,1,IF(L19=M19,"X",2))</f>
         <v>1</v>
       </c>
@@ -5317,7 +5385,7 @@
       <c r="C20" s="0" t="n">
         <v>70.572917</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="3" t="n">
         <f aca="false">IF(B20&gt;C20,1,IF(B20=C20,"X",2))</f>
         <v>2</v>
       </c>
@@ -5327,7 +5395,7 @@
       <c r="F20" s="0" t="n">
         <v>426.6</v>
       </c>
-      <c r="G20" s="2" t="str">
+      <c r="G20" s="3" t="str">
         <f aca="false">IF(E20&gt;F20,1,IF(E20=F20,"X",2))</f>
         <v>X</v>
       </c>
@@ -5337,11 +5405,11 @@
       <c r="I20" s="0" t="n">
         <v>0.062232</v>
       </c>
-      <c r="J20" s="2" t="n">
+      <c r="J20" s="3" t="n">
         <f aca="false">IF(H20&gt;I20,1,IF(H20=I20,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K20" s="3" t="n">
+      <c r="K20" s="2" t="n">
         <f aca="false">I20/H20</f>
         <v>7.37695590327169</v>
       </c>
@@ -5351,7 +5419,7 @@
       <c r="M20" s="0" t="n">
         <v>72.94751</v>
       </c>
-      <c r="N20" s="2" t="n">
+      <c r="N20" s="3" t="n">
         <f aca="false">IF(L20&gt;M20,1,IF(L20=M20,"X",2))</f>
         <v>2</v>
       </c>
@@ -5366,7 +5434,7 @@
       <c r="C21" s="0" t="n">
         <v>53.243243</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="3" t="n">
         <f aca="false">IF(B21&gt;C21,1,IF(B21=C21,"X",2))</f>
         <v>1</v>
       </c>
@@ -5376,7 +5444,7 @@
       <c r="F21" s="0" t="n">
         <v>5059.5</v>
       </c>
-      <c r="G21" s="2" t="str">
+      <c r="G21" s="3" t="str">
         <f aca="false">IF(E21&gt;F21,1,IF(E21=F21,"X",2))</f>
         <v>X</v>
       </c>
@@ -5386,11 +5454,11 @@
       <c r="I21" s="0" t="n">
         <v>11.32908</v>
       </c>
-      <c r="J21" s="2" t="n">
+      <c r="J21" s="3" t="n">
         <f aca="false">IF(H21&gt;I21,1,IF(H21=I21,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K21" s="3" t="n">
+      <c r="K21" s="2" t="n">
         <f aca="false">I21/H21</f>
         <v>65.7753470468361</v>
       </c>
@@ -5400,7 +5468,7 @@
       <c r="M21" s="0" t="n">
         <v>77.058478</v>
       </c>
-      <c r="N21" s="2" t="n">
+      <c r="N21" s="3" t="n">
         <f aca="false">IF(L21&gt;M21,1,IF(L21=M21,"X",2))</f>
         <v>1</v>
       </c>
@@ -5415,7 +5483,7 @@
       <c r="C22" s="0" t="n">
         <v>62.121212</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="3" t="n">
         <f aca="false">IF(B22&gt;C22,1,IF(B22=C22,"X",2))</f>
         <v>2</v>
       </c>
@@ -5425,7 +5493,7 @@
       <c r="F22" s="0" t="n">
         <v>354</v>
       </c>
-      <c r="G22" s="2" t="str">
+      <c r="G22" s="3" t="str">
         <f aca="false">IF(E22&gt;F22,1,IF(E22=F22,"X",2))</f>
         <v>X</v>
       </c>
@@ -5435,11 +5503,11 @@
       <c r="I22" s="0" t="n">
         <v>0.050998</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="J22" s="3" t="n">
         <f aca="false">IF(H22&gt;I22,1,IF(H22=I22,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K22" s="3" t="n">
+      <c r="K22" s="2" t="n">
         <f aca="false">I22/H22</f>
         <v>7.52738007380074</v>
       </c>
@@ -5449,7 +5517,7 @@
       <c r="M22" s="0" t="n">
         <v>66.435185</v>
       </c>
-      <c r="N22" s="2" t="n">
+      <c r="N22" s="3" t="n">
         <f aca="false">IF(L22&gt;M22,1,IF(L22=M22,"X",2))</f>
         <v>2</v>
       </c>
@@ -5464,7 +5532,7 @@
       <c r="C23" s="0" t="n">
         <v>51.235431</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="3" t="n">
         <f aca="false">IF(B23&gt;C23,1,IF(B23=C23,"X",2))</f>
         <v>1</v>
       </c>
@@ -5474,7 +5542,7 @@
       <c r="F23" s="0" t="n">
         <v>1859.1</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="3" t="n">
         <f aca="false">IF(E23&gt;F23,1,IF(E23=F23,"X",2))</f>
         <v>1</v>
       </c>
@@ -5484,11 +5552,11 @@
       <c r="I23" s="0" t="n">
         <v>15.075422</v>
       </c>
-      <c r="J23" s="2" t="n">
+      <c r="J23" s="3" t="n">
         <f aca="false">IF(H23&gt;I23,1,IF(H23=I23,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K23" s="3" t="n">
+      <c r="K23" s="2" t="n">
         <f aca="false">I23/H23</f>
         <v>58.7573108418333</v>
       </c>
@@ -5498,7 +5566,7 @@
       <c r="M23" s="0" t="n">
         <v>51.620479</v>
       </c>
-      <c r="N23" s="2" t="n">
+      <c r="N23" s="3" t="n">
         <f aca="false">IF(L23&gt;M23,1,IF(L23=M23,"X",2))</f>
         <v>1</v>
       </c>
@@ -5513,7 +5581,7 @@
       <c r="C24" s="0" t="n">
         <v>88.484848</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="3" t="n">
         <f aca="false">IF(B24&gt;C24,1,IF(B24=C24,"X",2))</f>
         <v>1</v>
       </c>
@@ -5523,7 +5591,7 @@
       <c r="F24" s="0" t="n">
         <v>863.3</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="3" t="n">
         <f aca="false">IF(E24&gt;F24,1,IF(E24=F24,"X",2))</f>
         <v>1</v>
       </c>
@@ -5533,11 +5601,11 @@
       <c r="I24" s="0" t="n">
         <v>0.407013</v>
       </c>
-      <c r="J24" s="2" t="n">
+      <c r="J24" s="3" t="n">
         <f aca="false">IF(H24&gt;I24,1,IF(H24=I24,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K24" s="3" t="n">
+      <c r="K24" s="2" t="n">
         <f aca="false">I24/H24</f>
         <v>8.16737568728177</v>
       </c>
@@ -5547,7 +5615,7 @@
       <c r="M24" s="0" t="n">
         <v>91.53605</v>
       </c>
-      <c r="N24" s="2" t="n">
+      <c r="N24" s="3" t="n">
         <f aca="false">IF(L24&gt;M24,1,IF(L24=M24,"X",2))</f>
         <v>1</v>
       </c>
@@ -5562,7 +5630,7 @@
       <c r="C25" s="0" t="n">
         <v>84.241108</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="3" t="n">
         <f aca="false">IF(B25&gt;C25,1,IF(B25=C25,"X",2))</f>
         <v>1</v>
       </c>
@@ -5572,7 +5640,7 @@
       <c r="F25" s="0" t="n">
         <v>70.1</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="3" t="n">
         <f aca="false">IF(E25&gt;F25,1,IF(E25=F25,"X",2))</f>
         <v>1</v>
       </c>
@@ -5582,11 +5650,11 @@
       <c r="I25" s="0" t="n">
         <v>1.451691</v>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="J25" s="3" t="n">
         <f aca="false">IF(H25&gt;I25,1,IF(H25=I25,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K25" s="3" t="n">
+      <c r="K25" s="2" t="n">
         <f aca="false">I25/H25</f>
         <v>2.3476090366609</v>
       </c>
@@ -5596,7 +5664,7 @@
       <c r="M25" s="0" t="n">
         <v>84.251276</v>
       </c>
-      <c r="N25" s="2" t="n">
+      <c r="N25" s="3" t="n">
         <f aca="false">IF(L25&gt;M25,1,IF(L25=M25,"X",2))</f>
         <v>1</v>
       </c>
@@ -5611,7 +5679,7 @@
       <c r="C26" s="0" t="n">
         <v>80.661301</v>
       </c>
-      <c r="D26" s="2" t="str">
+      <c r="D26" s="3" t="str">
         <f aca="false">IF(B26&gt;C26,1,IF(B26=C26,"X",2))</f>
         <v>X</v>
       </c>
@@ -5621,7 +5689,7 @@
       <c r="F26" s="0" t="n">
         <v>1379.6</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="3" t="n">
         <f aca="false">IF(E26&gt;F26,1,IF(E26=F26,"X",2))</f>
         <v>2</v>
       </c>
@@ -5631,11 +5699,11 @@
       <c r="I26" s="0" t="n">
         <v>3.755089</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="J26" s="3" t="n">
         <f aca="false">IF(H26&gt;I26,1,IF(H26=I26,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K26" s="3" t="n">
+      <c r="K26" s="2" t="n">
         <f aca="false">I26/H26</f>
         <v>13.1789878215702</v>
       </c>
@@ -5645,7 +5713,7 @@
       <c r="M26" s="0" t="n">
         <v>84.657534</v>
       </c>
-      <c r="N26" s="2" t="str">
+      <c r="N26" s="3" t="str">
         <f aca="false">IF(L26&gt;M26,1,IF(L26=M26,"X",2))</f>
         <v>X</v>
       </c>
@@ -5660,7 +5728,7 @@
       <c r="C27" s="0" t="n">
         <v>85.836364</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="3" t="n">
         <f aca="false">IF(B27&gt;C27,1,IF(B27=C27,"X",2))</f>
         <v>1</v>
       </c>
@@ -5670,7 +5738,7 @@
       <c r="F27" s="0" t="n">
         <v>3473.3</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="3" t="n">
         <f aca="false">IF(E27&gt;F27,1,IF(E27=F27,"X",2))</f>
         <v>1</v>
       </c>
@@ -5680,11 +5748,11 @@
       <c r="I27" s="0" t="n">
         <v>10.716644</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="J27" s="3" t="n">
         <f aca="false">IF(H27&gt;I27,1,IF(H27=I27,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K27" s="3" t="n">
+      <c r="K27" s="2" t="n">
         <f aca="false">I27/H27</f>
         <v>41.5647674824497</v>
       </c>
@@ -5694,7 +5762,7 @@
       <c r="M27" s="0" t="n">
         <v>91.634317</v>
       </c>
-      <c r="N27" s="2" t="n">
+      <c r="N27" s="3" t="n">
         <f aca="false">IF(L27&gt;M27,1,IF(L27=M27,"X",2))</f>
         <v>1</v>
       </c>
@@ -5709,7 +5777,7 @@
       <c r="C28" s="0" t="n">
         <v>92.097222</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="3" t="n">
         <f aca="false">IF(B28&gt;C28,1,IF(B28=C28,"X",2))</f>
         <v>2</v>
       </c>
@@ -5719,7 +5787,7 @@
       <c r="F28" s="0" t="n">
         <v>943.9</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="3" t="n">
         <f aca="false">IF(E28&gt;F28,1,IF(E28=F28,"X",2))</f>
         <v>2</v>
       </c>
@@ -5729,11 +5797,11 @@
       <c r="I28" s="0" t="n">
         <v>1.259747</v>
       </c>
-      <c r="J28" s="2" t="n">
+      <c r="J28" s="3" t="n">
         <f aca="false">IF(H28&gt;I28,1,IF(H28=I28,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K28" s="3" t="n">
+      <c r="K28" s="2" t="n">
         <f aca="false">I28/H28</f>
         <v>9.5693461152806</v>
       </c>
@@ -5743,7 +5811,7 @@
       <c r="M28" s="0" t="n">
         <v>93.35492</v>
       </c>
-      <c r="N28" s="2" t="n">
+      <c r="N28" s="3" t="n">
         <f aca="false">IF(L28&gt;M28,1,IF(L28=M28,"X",2))</f>
         <v>2</v>
       </c>
@@ -5758,7 +5826,7 @@
       <c r="C29" s="0" t="n">
         <v>34.932432</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="3" t="n">
         <f aca="false">IF(B29&gt;C29,1,IF(B29=C29,"X",2))</f>
         <v>2</v>
       </c>
@@ -5768,7 +5836,7 @@
       <c r="F29" s="0" t="n">
         <v>6654.2</v>
       </c>
-      <c r="G29" s="2" t="str">
+      <c r="G29" s="3" t="str">
         <f aca="false">IF(E29&gt;F29,1,IF(E29=F29,"X",2))</f>
         <v>X</v>
       </c>
@@ -5778,11 +5846,11 @@
       <c r="I29" s="0" t="n">
         <v>11.331774</v>
       </c>
-      <c r="J29" s="2" t="n">
+      <c r="J29" s="3" t="n">
         <f aca="false">IF(H29&gt;I29,1,IF(H29=I29,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K29" s="3" t="n">
+      <c r="K29" s="2" t="n">
         <f aca="false">I29/H29</f>
         <v>64.6038516795512</v>
       </c>
@@ -5792,7 +5860,7 @@
       <c r="M29" s="0" t="n">
         <v>93.119597</v>
       </c>
-      <c r="N29" s="2" t="n">
+      <c r="N29" s="3" t="n">
         <f aca="false">IF(L29&gt;M29,1,IF(L29=M29,"X",2))</f>
         <v>2</v>
       </c>
@@ -5807,7 +5875,7 @@
       <c r="C30" s="0" t="n">
         <v>54.491726</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="3" t="n">
         <f aca="false">IF(B30&gt;C30,1,IF(B30=C30,"X",2))</f>
         <v>2</v>
       </c>
@@ -5817,7 +5885,7 @@
       <c r="F30" s="0" t="n">
         <v>683.2</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="3" t="n">
         <f aca="false">IF(E30&gt;F30,1,IF(E30=F30,"X",2))</f>
         <v>1</v>
       </c>
@@ -5827,11 +5895,11 @@
       <c r="I30" s="0" t="n">
         <v>0.187486</v>
       </c>
-      <c r="J30" s="2" t="n">
+      <c r="J30" s="3" t="n">
         <f aca="false">IF(H30&gt;I30,1,IF(H30=I30,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K30" s="3" t="n">
+      <c r="K30" s="2" t="n">
         <f aca="false">I30/H30</f>
         <v>10.0259893048128</v>
       </c>
@@ -5841,7 +5909,7 @@
       <c r="M30" s="0" t="n">
         <v>67.103348</v>
       </c>
-      <c r="N30" s="2" t="n">
+      <c r="N30" s="3" t="n">
         <f aca="false">IF(L30&gt;M30,1,IF(L30=M30,"X",2))</f>
         <v>2</v>
       </c>
@@ -5856,7 +5924,7 @@
       <c r="C31" s="0" t="n">
         <v>93.030303</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="3" t="n">
         <f aca="false">IF(B31&gt;C31,1,IF(B31=C31,"X",2))</f>
         <v>1</v>
       </c>
@@ -5866,7 +5934,7 @@
       <c r="F31" s="0" t="n">
         <v>638.8</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="3" t="n">
         <f aca="false">IF(E31&gt;F31,1,IF(E31=F31,"X",2))</f>
         <v>1</v>
       </c>
@@ -5876,11 +5944,11 @@
       <c r="I31" s="0" t="n">
         <v>0.134568</v>
       </c>
-      <c r="J31" s="2" t="n">
+      <c r="J31" s="3" t="n">
         <f aca="false">IF(H31&gt;I31,1,IF(H31=I31,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K31" s="3" t="n">
+      <c r="K31" s="2" t="n">
         <f aca="false">I31/H31</f>
         <v>9.15802368313597</v>
       </c>
@@ -5890,7 +5958,7 @@
       <c r="M31" s="0" t="n">
         <v>93.31307</v>
       </c>
-      <c r="N31" s="2" t="n">
+      <c r="N31" s="3" t="n">
         <f aca="false">IF(L31&gt;M31,1,IF(L31=M31,"X",2))</f>
         <v>1</v>
       </c>
@@ -5905,7 +5973,7 @@
       <c r="C32" s="0" t="n">
         <v>59.59975</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="3" t="n">
         <f aca="false">IF(B32&gt;C32,1,IF(B32=C32,"X",2))</f>
         <v>2</v>
       </c>
@@ -5915,7 +5983,7 @@
       <c r="F32" s="0" t="n">
         <v>614.2</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="3" t="n">
         <f aca="false">IF(E32&gt;F32,1,IF(E32=F32,"X",2))</f>
         <v>1</v>
       </c>
@@ -5925,11 +5993,11 @@
       <c r="I32" s="0" t="n">
         <v>0.28823</v>
       </c>
-      <c r="J32" s="2" t="n">
+      <c r="J32" s="3" t="n">
         <f aca="false">IF(H32&gt;I32,1,IF(H32=I32,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K32" s="3" t="n">
+      <c r="K32" s="2" t="n">
         <f aca="false">I32/H32</f>
         <v>11.4381523076313</v>
       </c>
@@ -5939,7 +6007,7 @@
       <c r="M32" s="0" t="n">
         <v>60.469543</v>
       </c>
-      <c r="N32" s="2" t="n">
+      <c r="N32" s="3" t="n">
         <f aca="false">IF(L32&gt;M32,1,IF(L32=M32,"X",2))</f>
         <v>2</v>
       </c>
@@ -5954,7 +6022,7 @@
       <c r="C33" s="0" t="n">
         <v>53.082891</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="3" t="n">
         <f aca="false">IF(B33&gt;C33,1,IF(B33=C33,"X",2))</f>
         <v>2</v>
       </c>
@@ -5964,7 +6032,7 @@
       <c r="F33" s="0" t="n">
         <v>651.5</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="3" t="n">
         <f aca="false">IF(E33&gt;F33,1,IF(E33=F33,"X",2))</f>
         <v>1</v>
       </c>
@@ -5974,11 +6042,11 @@
       <c r="I33" s="0" t="n">
         <v>1.702653</v>
       </c>
-      <c r="J33" s="2" t="n">
+      <c r="J33" s="3" t="n">
         <f aca="false">IF(H33&gt;I33,1,IF(H33=I33,"X",2))</f>
         <v>2</v>
       </c>
-      <c r="K33" s="3" t="n">
+      <c r="K33" s="2" t="n">
         <f aca="false">I33/H33</f>
         <v>26.007805459239</v>
       </c>
@@ -5988,7 +6056,7 @@
       <c r="M33" s="0" t="n">
         <v>53.213262</v>
       </c>
-      <c r="N33" s="2" t="n">
+      <c r="N33" s="3" t="n">
         <f aca="false">IF(L33&gt;M33,1,IF(L33=M33,"X",2))</f>
         <v>2</v>
       </c>
@@ -6009,6 +6077,10 @@
       <c r="F34" s="0" t="n">
         <f aca="false">AVERAGE(F4:F33)</f>
         <v>2255.93333333333</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">E34/F34</f>
+        <v>1.05515381660215</v>
       </c>
       <c r="H34" s="0" t="n">
         <f aca="false">AVERAGE(H4:H33)</f>

--- a/src/QckChi_result_5labels.xlsx
+++ b/src/QckChi_result_5labels.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="QckChi_result_5labels" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="63">
   <si>
     <t xml:space="preserve">=====================</t>
   </si>
@@ -216,10 +217,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -286,7 +288,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -301,6 +303,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -322,11 +332,11 @@
   </sheetPr>
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.63"/>
@@ -4523,10 +4533,1615 @@
   <dimension ref="A2:N34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="1" sqref="4:4 A29"/>
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="A4:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="11.57"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>16.69861</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1.054145</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <f aca="false">IF(B4&gt;C4,1,IF(B4=C4,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <f aca="false">IF(E4&gt;F4,1,IF(E4=F4,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.036865</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.163821</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <f aca="false">IF(H4&gt;I4,1,IF(H4=I4,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <f aca="false">I4/H4</f>
+        <v>4.44380849043808</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>16.718638</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>27.672956</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <f aca="false">IF(L4&gt;M4,1,IF(L4=M4,"X",2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>63.318739</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>64.380169</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <f aca="false">IF(B5&gt;C5,1,IF(B5=C5,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>19796.4</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>19796.4</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f aca="false">IF(E5&gt;F5,1,IF(E5=F5,"X",2))</f>
+        <v>X</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.691852</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>150.038856</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <f aca="false">IF(H5&gt;I5,1,IF(H5=I5,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <f aca="false">I5/H5</f>
+        <v>216.865537716159</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>80.529853</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>81.879799</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <f aca="false">IF(L5&gt;M5,1,IF(L5=M5,"X",2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>54.637681</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>54.637681</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f aca="false">IF(B6&gt;C6,1,IF(B6=C6,"X",2))</f>
+        <v>X</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>498.9</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>498.9</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f aca="false">IF(E6&gt;F6,1,IF(E6=F6,"X",2))</f>
+        <v>X</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.009846</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.07474</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <f aca="false">IF(H6&gt;I6,1,IF(H6=I6,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <f aca="false">I6/H6</f>
+        <v>7.59089985781028</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>82.857143</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>82.857143</v>
+      </c>
+      <c r="N6" s="3" t="str">
+        <f aca="false">IF(L6&gt;M6,1,IF(L6=M6,"X",2))</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>79.377358</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>80.358491</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <f aca="false">IF(B7&gt;C7,1,IF(B7=C7,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f aca="false">IF(E7&gt;F7,1,IF(E7=F7,"X",2))</f>
+        <v>X</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.024368</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.041358</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <f aca="false">IF(H7&gt;I7,1,IF(H7=I7,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <f aca="false">I7/H7</f>
+        <v>1.69722586999343</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>79.392338</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>80.373655</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <f aca="false">IF(L7&gt;M7,1,IF(L7=M7,"X",2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>16.164384</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>16.438356</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <f aca="false">IF(B8&gt;C8,1,IF(B8=C8,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>325.3</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>325.3</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f aca="false">IF(E8&gt;F8,1,IF(E8=F8,"X",2))</f>
+        <v>X</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.009046</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.028806</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <f aca="false">IF(H8&gt;I8,1,IF(H8=I8,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <f aca="false">I8/H8</f>
+        <v>3.18439089100155</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>64.130435</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>65.217391</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <f aca="false">IF(L8&gt;M8,1,IF(L8=M8,"X",2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>55.652174</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>59.710145</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <f aca="false">IF(B9&gt;C9,1,IF(B9=C9,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f aca="false">IF(E9&gt;F9,1,IF(E9=F9,"X",2))</f>
+        <v>X</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.001962</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.011007</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <f aca="false">IF(H9&gt;I9,1,IF(H9=I9,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <f aca="false">I9/H9</f>
+        <v>5.61009174311927</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>57.313433</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>61.492537</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <f aca="false">IF(L9&gt;M9,1,IF(L9=M9,"X",2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>24.272042</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>24.272042</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f aca="false">IF(B10&gt;C10,1,IF(B10=C10,"X",2))</f>
+        <v>X</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>7451.9</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>7455.8</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <f aca="false">IF(E10&gt;F10,1,IF(E10=F10,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.896667</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>11.312957</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <f aca="false">IF(H10&gt;I10,1,IF(H10=I10,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <f aca="false">I10/H10</f>
+        <v>12.6166759789309</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>92.153073</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>92.153073</v>
+      </c>
+      <c r="N10" s="3" t="str">
+        <f aca="false">IF(L10&gt;M10,1,IF(L10=M10,"X",2))</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>40.735069</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>41.194487</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <f aca="false">IF(B11&gt;C11,1,IF(B11=C11,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>522.7</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>522.7</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f aca="false">IF(E11&gt;F11,1,IF(E11=F11,"X",2))</f>
+        <v>X</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.012359</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.064123</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <f aca="false">IF(H11&gt;I11,1,IF(H11=I11,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <f aca="false">I11/H11</f>
+        <v>5.18836475442997</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>85.530547</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>86.495177</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <f aca="false">IF(L11&gt;M11,1,IF(L11=M11,"X",2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>94.666667</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>95.333333</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <f aca="false">IF(B12&gt;C12,1,IF(B12=C12,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f aca="false">IF(E12&gt;F12,1,IF(E12=F12,"X",2))</f>
+        <v>X</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.001175</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.001914</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <f aca="false">IF(H12&gt;I12,1,IF(H12=I12,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <f aca="false">I12/H12</f>
+        <v>1.62893617021277</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>94.666667</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>95.333333</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <f aca="false">IF(L12&gt;M12,1,IF(L12=M12,"X",2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>77.43</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>74.6</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <f aca="false">IF(B13&gt;C13,1,IF(B13=C13,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>7488.1</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>4962.3</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <f aca="false">IF(E13&gt;F13,1,IF(E13=F13,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.382329</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>34.050016</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <f aca="false">IF(H13&gt;I13,1,IF(H13=I13,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <f aca="false">I13/H13</f>
+        <v>89.0594644926228</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>77.635735</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>75.186454</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <f aca="false">IF(L13&gt;M13,1,IF(L13=M13,"X",2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>81.629863</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>80.799159</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <f aca="false">IF(B14&gt;C14,1,IF(B14=C14,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>1912.4</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>1912.4</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f aca="false">IF(E14&gt;F14,1,IF(E14=F14,"X",2))</f>
+        <v>X</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.217228</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>7.052754</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <f aca="false">IF(H14&gt;I14,1,IF(H14=I14,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <f aca="false">I14/H14</f>
+        <v>32.4670576537095</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>81.702889</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>80.871441</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <f aca="false">IF(L14&gt;M14,1,IF(L14=M14,"X",2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>95.348837</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>91.162791</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <f aca="false">IF(B15&gt;C15,1,IF(B15=C15,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f aca="false">IF(E15&gt;F15,1,IF(E15=F15,"X",2))</f>
+        <v>X</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.001298</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.005417</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <f aca="false">IF(H15&gt;I15,1,IF(H15=I15,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <f aca="false">I15/H15</f>
+        <v>4.173343605547</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>96.244131</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>92.018779</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <f aca="false">IF(L15&gt;M15,1,IF(L15=M15,"X",2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>76.86747</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>76.746988</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <f aca="false">IF(B16&gt;C16,1,IF(B16=C16,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <f aca="false">IF(E16&gt;F16,1,IF(E16=F16,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.005635</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.032833</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <f aca="false">IF(H16&gt;I16,1,IF(H16=I16,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <f aca="false">I16/H16</f>
+        <v>5.82661934338953</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>83.072917</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>82.942708</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <f aca="false">IF(L16&gt;M16,1,IF(L16=M16,"X",2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>94.38962</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>93.896199</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <f aca="false">IF(B17&gt;C17,1,IF(B17=C17,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <f aca="false">IF(E17&gt;F17,1,IF(E17=F17,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>0.064551</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0.221444</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <f aca="false">IF(H17&gt;I17,1,IF(H17=I17,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <f aca="false">I17/H17</f>
+        <v>3.43052779972425</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>94.579747</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>94.085332</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <f aca="false">IF(L17&gt;M17,1,IF(L17=M17,"X",2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>94.013828</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>94.304949</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <f aca="false">IF(B18&gt;C18,1,IF(B18=C18,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>7739</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>7737.1</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <f aca="false">IF(E18&gt;F18,1,IF(E18=F18,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.181449</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>10.594656</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <f aca="false">IF(H18&gt;I18,1,IF(H18=I18,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <f aca="false">I18/H18</f>
+        <v>58.3891672040077</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>98.91835</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>99.224658</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <f aca="false">IF(L18&gt;M18,1,IF(L18=M18,"X",2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>80.588453</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>78.663953</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <f aca="false">IF(B19&gt;C19,1,IF(B19=C19,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>228.2</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>228.2</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f aca="false">IF(E19&gt;F19,1,IF(E19=F19,"X",2))</f>
+        <v>X</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.219135</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <f aca="false">IF(H19&gt;I19,1,IF(H19=I19,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <f aca="false">I19/H19</f>
+        <v>5.76671052631579</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>80.588453</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>78.663953</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <f aca="false">IF(L19&gt;M19,1,IF(L19=M19,"X",2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>66.015625</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>70.572917</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <f aca="false">IF(B20&gt;C20,1,IF(B20=C20,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>426.6</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>426.6</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f aca="false">IF(E20&gt;F20,1,IF(E20=F20,"X",2))</f>
+        <v>X</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>0.008436</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>0.062232</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <f aca="false">IF(H20&gt;I20,1,IF(H20=I20,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <f aca="false">I20/H20</f>
+        <v>7.37695590327169</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>68.236878</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>72.94751</v>
+      </c>
+      <c r="N20" s="3" t="n">
+        <f aca="false">IF(L20&gt;M20,1,IF(L20=M20,"X",2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>54.621622</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>53.243243</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <f aca="false">IF(B21&gt;C21,1,IF(B21=C21,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>5059.5</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>5059.5</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f aca="false">IF(E21&gt;F21,1,IF(E21=F21,"X",2))</f>
+        <v>X</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>0.172239</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>11.32908</v>
+      </c>
+      <c r="J21" s="4" t="n">
+        <f aca="false">IF(H21&gt;I21,1,IF(H21=I21,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <f aca="false">I21/H21</f>
+        <v>65.7753470468361</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>79.053393</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>77.058478</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <f aca="false">IF(L21&gt;M21,1,IF(L21=M21,"X",2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>60.822511</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>62.121212</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <f aca="false">IF(B22&gt;C22,1,IF(B22=C22,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>354</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>354</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f aca="false">IF(E22&gt;F22,1,IF(E22=F22,"X",2))</f>
+        <v>X</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.006775</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.050998</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <f aca="false">IF(H22&gt;I22,1,IF(H22=I22,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <f aca="false">I22/H22</f>
+        <v>7.52738007380074</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>65.046296</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>66.435185</v>
+      </c>
+      <c r="N22" s="3" t="n">
+        <f aca="false">IF(L22&gt;M22,1,IF(L22=M22,"X",2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>64.832945</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>51.235431</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <f aca="false">IF(B23&gt;C23,1,IF(B23=C23,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>2137.4</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>1859.1</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <f aca="false">IF(E23&gt;F23,1,IF(E23=F23,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>0.256571</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>15.075422</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <f aca="false">IF(H23&gt;I23,1,IF(H23=I23,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <f aca="false">I23/H23</f>
+        <v>58.7573108418333</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>65.228268</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>51.620479</v>
+      </c>
+      <c r="N23" s="3" t="n">
+        <f aca="false">IF(L23&gt;M23,1,IF(L23=M23,"X",2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>90.38961</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>88.484848</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <f aca="false">IF(B24&gt;C24,1,IF(B24=C24,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>884.9</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>863.3</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <f aca="false">IF(E24&gt;F24,1,IF(E24=F24,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.049834</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.407013</v>
+      </c>
+      <c r="J24" s="4" t="n">
+        <f aca="false">IF(H24&gt;I24,1,IF(H24=I24,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <f aca="false">I24/H24</f>
+        <v>8.16737568728177</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>93.422819</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>91.53605</v>
+      </c>
+      <c r="N24" s="3" t="n">
+        <f aca="false">IF(L24&gt;M24,1,IF(L24=M24,"X",2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>92.424007</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>84.241108</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <f aca="false">IF(B25&gt;C25,1,IF(B25=C25,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>71.9</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>70.1</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <f aca="false">IF(E25&gt;F25,1,IF(E25=F25,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>0.61837</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>1.451691</v>
+      </c>
+      <c r="J25" s="4" t="n">
+        <f aca="false">IF(H25&gt;I25,1,IF(H25=I25,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <f aca="false">I25/H25</f>
+        <v>2.3476090366609</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>92.435163</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>84.251276</v>
+      </c>
+      <c r="N25" s="3" t="n">
+        <f aca="false">IF(L25&gt;M25,1,IF(L25=M25,"X",2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>80.661301</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>80.661301</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f aca="false">IF(B26&gt;C26,1,IF(B26=C26,"X",2))</f>
+        <v>X</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>1379.5</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>1379.6</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <f aca="false">IF(E26&gt;F26,1,IF(E26=F26,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>0.28493</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>3.755089</v>
+      </c>
+      <c r="J26" s="4" t="n">
+        <f aca="false">IF(H26&gt;I26,1,IF(H26=I26,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <f aca="false">I26/H26</f>
+        <v>13.1789878215702</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>84.657534</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>84.657534</v>
+      </c>
+      <c r="N26" s="3" t="str">
+        <f aca="false">IF(L26&gt;M26,1,IF(L26=M26,"X",2))</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>87.4</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>85.836364</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <f aca="false">IF(B27&gt;C27,1,IF(B27=C27,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>3694.8</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>3473.3</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <f aca="false">IF(E27&gt;F27,1,IF(E27=F27,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>0.25783</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>10.716644</v>
+      </c>
+      <c r="J27" s="4" t="n">
+        <f aca="false">IF(H27&gt;I27,1,IF(H27=I27,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <f aca="false">I27/H27</f>
+        <v>41.5647674824497</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>93.104784</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>91.634317</v>
+      </c>
+      <c r="N27" s="3" t="n">
+        <f aca="false">IF(L27&gt;M27,1,IF(L27=M27,"X",2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>91.958333</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>92.097222</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <f aca="false">IF(B28&gt;C28,1,IF(B28=C28,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>941.2</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>943.9</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <f aca="false">IF(E28&gt;F28,1,IF(E28=F28,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>0.131644</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>1.259747</v>
+      </c>
+      <c r="J28" s="4" t="n">
+        <f aca="false">IF(H28&gt;I28,1,IF(H28=I28,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <f aca="false">I28/H28</f>
+        <v>9.5693461152806</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>93.214135</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>93.35492</v>
+      </c>
+      <c r="N28" s="3" t="n">
+        <f aca="false">IF(L28&gt;M28,1,IF(L28=M28,"X",2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>34.135135</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>34.932432</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <f aca="false">IF(B29&gt;C29,1,IF(B29=C29,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>6654.2</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>6654.2</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f aca="false">IF(E29&gt;F29,1,IF(E29=F29,"X",2))</f>
+        <v>X</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>0.175404</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>11.331774</v>
+      </c>
+      <c r="J29" s="4" t="n">
+        <f aca="false">IF(H29&gt;I29,1,IF(H29=I29,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <f aca="false">I29/H29</f>
+        <v>64.6038516795512</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>90.994236</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>93.119597</v>
+      </c>
+      <c r="N29" s="3" t="n">
+        <f aca="false">IF(L29&gt;M29,1,IF(L29=M29,"X",2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>51.891253</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>54.491726</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <f aca="false">IF(B30&gt;C30,1,IF(B30=C30,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>707.8</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>683.2</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <f aca="false">IF(E30&gt;F30,1,IF(E30=F30,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>0.0187</v>
+      </c>
+      <c r="I30" s="5" t="n">
+        <v>0.187486</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <f aca="false">IF(H30&gt;I30,1,IF(H30=I30,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <f aca="false">I30/H30</f>
+        <v>10.0259893048128</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>63.531114</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>67.103348</v>
+      </c>
+      <c r="N30" s="3" t="n">
+        <f aca="false">IF(L30&gt;M30,1,IF(L30=M30,"X",2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>93.434343</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>93.030303</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <f aca="false">IF(B31&gt;C31,1,IF(B31=C31,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>649.7</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>638.8</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <f aca="false">IF(E31&gt;F31,1,IF(E31=F31,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>0.014694</v>
+      </c>
+      <c r="I31" s="5" t="n">
+        <v>0.134568</v>
+      </c>
+      <c r="J31" s="4" t="n">
+        <f aca="false">IF(H31&gt;I31,1,IF(H31=I31,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <f aca="false">I31/H31</f>
+        <v>9.15802368313597</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>93.718338</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>93.31307</v>
+      </c>
+      <c r="N31" s="3" t="n">
+        <f aca="false">IF(L31&gt;M31,1,IF(L31=M31,"X",2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>56.785491</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>59.59975</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <f aca="false">IF(B32&gt;C32,1,IF(B32=C32,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>763.4</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>614.2</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <f aca="false">IF(E32&gt;F32,1,IF(E32=F32,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>0.025199</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <v>0.28823</v>
+      </c>
+      <c r="J32" s="4" t="n">
+        <f aca="false">IF(H32&gt;I32,1,IF(H32=I32,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <f aca="false">I32/H32</f>
+        <v>11.4381523076313</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>57.614213</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>60.469543</v>
+      </c>
+      <c r="N32" s="3" t="n">
+        <f aca="false">IF(L32&gt;M32,1,IF(L32=M32,"X",2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>49.795835</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>53.082891</v>
+      </c>
+      <c r="D33" s="4" t="n">
+        <f aca="false">IF(B33&gt;C33,1,IF(B33=C33,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>1043.2</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>651.5</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <f aca="false">IF(E33&gt;F33,1,IF(E33=F33,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <v>0.065467</v>
+      </c>
+      <c r="I33" s="5" t="n">
+        <v>1.702653</v>
+      </c>
+      <c r="J33" s="4" t="n">
+        <f aca="false">IF(H33&gt;I33,1,IF(H33=I33,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <f aca="false">I33/H33</f>
+        <v>26.007805459239</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v>49.897709</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>53.213262</v>
+      </c>
+      <c r="N33" s="3" t="n">
+        <f aca="false">IF(L33&gt;M33,1,IF(L33=M33,"X",2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="n">
+        <f aca="false">AVERAGE(B4:B33)</f>
+        <v>67.3652935333333</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <f aca="false">AVERAGE(C4:C33)</f>
+        <v>66.3727878666667</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="n">
+        <f aca="false">AVERAGE(E4:E33)</f>
+        <v>2380.35666666667</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <f aca="false">AVERAGE(F4:F33)</f>
+        <v>2255.93333333333</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <f aca="false">E34/F34</f>
+        <v>1.05515381660215</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <f aca="false">AVERAGE(H4:H33)</f>
+        <v>0.155357433333333</v>
+      </c>
+      <c r="I34" s="5" t="n">
+        <f aca="false">AVERAGE(I4:I33)</f>
+        <v>9.0555488</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2" t="n">
+        <f aca="false">AVERAGE(K4:K33)</f>
+        <v>26.4479241513589</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <f aca="false">AVERAGE(L4:L33)</f>
+        <v>78.5396409666667</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <f aca="false">AVERAGE(M4:M33)</f>
+        <v>78.5727652666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:H34"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
   </cols>
@@ -4538,26 +6153,19 @@
       <c r="C2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="0" t="s">
+        <v>60</v>
+      </c>
       <c r="E2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>61</v>
-      </c>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -4569,1538 +6177,861 @@
       <c r="C3" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" s="0" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>16.69861</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="2" t="n">
         <v>1.054145</v>
       </c>
-      <c r="D4" s="3" t="n">
-        <f aca="false">IF(B4&gt;C4,1,IF(B4=C4,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="D4" s="2" t="n">
         <v>122.7</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="E4" s="2" t="n">
         <v>12.2</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <f aca="false">IF(E4&gt;F4,1,IF(E4=F4,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="0" t="n">
+      <c r="F4" s="5" t="n">
         <v>0.036865</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="G4" s="5" t="n">
         <v>0.163821</v>
       </c>
-      <c r="J4" s="3" t="n">
-        <f aca="false">IF(H4&gt;I4,1,IF(H4=I4,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <f aca="false">I4/H4</f>
+      <c r="H4" s="2" t="n">
+        <f aca="false">G4/F4</f>
         <v>4.44380849043808</v>
       </c>
-      <c r="L4" s="0" t="n">
-        <v>16.718638</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>27.672956</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <f aca="false">IF(L4&gt;M4,1,IF(L4=M4,"X",2))</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>63.318739</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="2" t="n">
         <v>64.380169</v>
       </c>
-      <c r="D5" s="3" t="n">
-        <f aca="false">IF(B5&gt;C5,1,IF(B5=C5,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="D5" s="2" t="n">
         <v>19796.4</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="E5" s="2" t="n">
         <v>19796.4</v>
       </c>
-      <c r="G5" s="3" t="str">
-        <f aca="false">IF(E5&gt;F5,1,IF(E5=F5,"X",2))</f>
-        <v>X</v>
-      </c>
-      <c r="H5" s="0" t="n">
+      <c r="F5" s="5" t="n">
         <v>0.691852</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="G5" s="5" t="n">
         <v>150.038856</v>
       </c>
-      <c r="J5" s="3" t="n">
-        <f aca="false">IF(H5&gt;I5,1,IF(H5=I5,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <f aca="false">I5/H5</f>
+      <c r="H5" s="2" t="n">
+        <f aca="false">G5/F5</f>
         <v>216.865537716159</v>
       </c>
-      <c r="L5" s="0" t="n">
-        <v>80.529853</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>81.879799</v>
-      </c>
-      <c r="N5" s="3" t="n">
-        <f aca="false">IF(L5&gt;M5,1,IF(L5=M5,"X",2))</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>54.637681</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="2" t="n">
         <v>54.637681</v>
       </c>
-      <c r="D6" s="3" t="str">
-        <f aca="false">IF(B6&gt;C6,1,IF(B6=C6,"X",2))</f>
-        <v>X</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="D6" s="2" t="n">
         <v>498.9</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="E6" s="2" t="n">
         <v>498.9</v>
       </c>
-      <c r="G6" s="3" t="str">
-        <f aca="false">IF(E6&gt;F6,1,IF(E6=F6,"X",2))</f>
-        <v>X</v>
-      </c>
-      <c r="H6" s="0" t="n">
+      <c r="F6" s="5" t="n">
         <v>0.009846</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="G6" s="5" t="n">
         <v>0.07474</v>
       </c>
-      <c r="J6" s="3" t="n">
-        <f aca="false">IF(H6&gt;I6,1,IF(H6=I6,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <f aca="false">I6/H6</f>
+      <c r="H6" s="2" t="n">
+        <f aca="false">G6/F6</f>
         <v>7.59089985781028</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <v>82.857143</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>82.857143</v>
-      </c>
-      <c r="N6" s="3" t="str">
-        <f aca="false">IF(L6&gt;M6,1,IF(L6=M6,"X",2))</f>
-        <v>X</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>79.377358</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="2" t="n">
         <v>80.358491</v>
       </c>
-      <c r="D7" s="3" t="n">
-        <f aca="false">IF(B7&gt;C7,1,IF(B7=C7,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="D7" s="2" t="n">
         <v>19.6</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="E7" s="2" t="n">
         <v>19.6</v>
       </c>
-      <c r="G7" s="3" t="str">
-        <f aca="false">IF(E7&gt;F7,1,IF(E7=F7,"X",2))</f>
-        <v>X</v>
-      </c>
-      <c r="H7" s="0" t="n">
+      <c r="F7" s="5" t="n">
         <v>0.024368</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="G7" s="5" t="n">
         <v>0.041358</v>
       </c>
-      <c r="J7" s="3" t="n">
-        <f aca="false">IF(H7&gt;I7,1,IF(H7=I7,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <f aca="false">I7/H7</f>
+      <c r="H7" s="2" t="n">
+        <f aca="false">G7/F7</f>
         <v>1.69722586999343</v>
       </c>
-      <c r="L7" s="0" t="n">
-        <v>79.392338</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>80.373655</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <f aca="false">IF(L7&gt;M7,1,IF(L7=M7,"X",2))</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>16.164384</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="2" t="n">
         <v>16.438356</v>
       </c>
-      <c r="D8" s="3" t="n">
-        <f aca="false">IF(B8&gt;C8,1,IF(B8=C8,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="D8" s="2" t="n">
         <v>325.3</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="E8" s="2" t="n">
         <v>325.3</v>
       </c>
-      <c r="G8" s="3" t="str">
-        <f aca="false">IF(E8&gt;F8,1,IF(E8=F8,"X",2))</f>
-        <v>X</v>
-      </c>
-      <c r="H8" s="0" t="n">
+      <c r="F8" s="5" t="n">
         <v>0.009046</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="G8" s="5" t="n">
         <v>0.028806</v>
       </c>
-      <c r="J8" s="3" t="n">
-        <f aca="false">IF(H8&gt;I8,1,IF(H8=I8,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <f aca="false">I8/H8</f>
+      <c r="H8" s="2" t="n">
+        <f aca="false">G8/F8</f>
         <v>3.18439089100155</v>
       </c>
-      <c r="L8" s="0" t="n">
-        <v>64.130435</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>65.217391</v>
-      </c>
-      <c r="N8" s="3" t="n">
-        <f aca="false">IF(L8&gt;M8,1,IF(L8=M8,"X",2))</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>55.652174</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="2" t="n">
         <v>59.710145</v>
       </c>
-      <c r="D9" s="3" t="n">
-        <f aca="false">IF(B9&gt;C9,1,IF(B9=C9,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="D9" s="2" t="n">
         <v>120.8</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="E9" s="2" t="n">
         <v>120.8</v>
       </c>
-      <c r="G9" s="3" t="str">
-        <f aca="false">IF(E9&gt;F9,1,IF(E9=F9,"X",2))</f>
-        <v>X</v>
-      </c>
-      <c r="H9" s="0" t="n">
+      <c r="F9" s="5" t="n">
         <v>0.001962</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="G9" s="5" t="n">
         <v>0.011007</v>
       </c>
-      <c r="J9" s="3" t="n">
-        <f aca="false">IF(H9&gt;I9,1,IF(H9=I9,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <f aca="false">I9/H9</f>
+      <c r="H9" s="2" t="n">
+        <f aca="false">G9/F9</f>
         <v>5.61009174311927</v>
       </c>
-      <c r="L9" s="0" t="n">
-        <v>57.313433</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>61.492537</v>
-      </c>
-      <c r="N9" s="3" t="n">
-        <f aca="false">IF(L9&gt;M9,1,IF(L9=M9,"X",2))</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>24.272042</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="2" t="n">
         <v>24.272042</v>
       </c>
-      <c r="D10" s="3" t="str">
-        <f aca="false">IF(B10&gt;C10,1,IF(B10=C10,"X",2))</f>
-        <v>X</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="D10" s="2" t="n">
         <v>7451.9</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="E10" s="2" t="n">
         <v>7455.8</v>
       </c>
-      <c r="G10" s="3" t="n">
-        <f aca="false">IF(E10&gt;F10,1,IF(E10=F10,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="H10" s="0" t="n">
+      <c r="F10" s="5" t="n">
         <v>0.896667</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="G10" s="5" t="n">
         <v>11.312957</v>
       </c>
-      <c r="J10" s="3" t="n">
-        <f aca="false">IF(H10&gt;I10,1,IF(H10=I10,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <f aca="false">I10/H10</f>
+      <c r="H10" s="2" t="n">
+        <f aca="false">G10/F10</f>
         <v>12.6166759789309</v>
       </c>
-      <c r="L10" s="0" t="n">
-        <v>92.153073</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>92.153073</v>
-      </c>
-      <c r="N10" s="3" t="str">
-        <f aca="false">IF(L10&gt;M10,1,IF(L10=M10,"X",2))</f>
-        <v>X</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>40.735069</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="2" t="n">
         <v>41.194487</v>
       </c>
-      <c r="D11" s="3" t="n">
-        <f aca="false">IF(B11&gt;C11,1,IF(B11=C11,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E11" s="0" t="n">
+      <c r="D11" s="2" t="n">
         <v>522.7</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="E11" s="2" t="n">
         <v>522.7</v>
       </c>
-      <c r="G11" s="3" t="str">
-        <f aca="false">IF(E11&gt;F11,1,IF(E11=F11,"X",2))</f>
-        <v>X</v>
-      </c>
-      <c r="H11" s="0" t="n">
+      <c r="F11" s="5" t="n">
         <v>0.012359</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="G11" s="5" t="n">
         <v>0.064123</v>
       </c>
-      <c r="J11" s="3" t="n">
-        <f aca="false">IF(H11&gt;I11,1,IF(H11=I11,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <f aca="false">I11/H11</f>
+      <c r="H11" s="2" t="n">
+        <f aca="false">G11/F11</f>
         <v>5.18836475442997</v>
       </c>
-      <c r="L11" s="0" t="n">
-        <v>85.530547</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>86.495177</v>
-      </c>
-      <c r="N11" s="3" t="n">
-        <f aca="false">IF(L11&gt;M11,1,IF(L11=M11,"X",2))</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>94.666667</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="2" t="n">
         <v>95.333333</v>
       </c>
-      <c r="D12" s="3" t="n">
-        <f aca="false">IF(B12&gt;C12,1,IF(B12=C12,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E12" s="0" t="n">
+      <c r="D12" s="2" t="n">
         <v>45.5</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="E12" s="2" t="n">
         <v>45.5</v>
       </c>
-      <c r="G12" s="3" t="str">
-        <f aca="false">IF(E12&gt;F12,1,IF(E12=F12,"X",2))</f>
-        <v>X</v>
-      </c>
-      <c r="H12" s="0" t="n">
+      <c r="F12" s="5" t="n">
         <v>0.001175</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="G12" s="5" t="n">
         <v>0.001914</v>
       </c>
-      <c r="J12" s="3" t="n">
-        <f aca="false">IF(H12&gt;I12,1,IF(H12=I12,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <f aca="false">I12/H12</f>
+      <c r="H12" s="2" t="n">
+        <f aca="false">G12/F12</f>
         <v>1.62893617021277</v>
       </c>
-      <c r="L12" s="0" t="n">
-        <v>94.666667</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>95.333333</v>
-      </c>
-      <c r="N12" s="3" t="n">
-        <f aca="false">IF(L12&gt;M12,1,IF(L12=M12,"X",2))</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>77.43</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="2" t="n">
         <v>74.6</v>
       </c>
-      <c r="D13" s="3" t="n">
-        <f aca="false">IF(B13&gt;C13,1,IF(B13=C13,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="D13" s="2" t="n">
         <v>7488.1</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="E13" s="2" t="n">
         <v>4962.3</v>
       </c>
-      <c r="G13" s="3" t="n">
-        <f aca="false">IF(E13&gt;F13,1,IF(E13=F13,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H13" s="0" t="n">
+      <c r="F13" s="5" t="n">
         <v>0.382329</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="G13" s="5" t="n">
         <v>34.050016</v>
       </c>
-      <c r="J13" s="3" t="n">
-        <f aca="false">IF(H13&gt;I13,1,IF(H13=I13,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <f aca="false">I13/H13</f>
+      <c r="H13" s="2" t="n">
+        <f aca="false">G13/F13</f>
         <v>89.0594644926228</v>
       </c>
-      <c r="L13" s="0" t="n">
-        <v>77.635735</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>75.186454</v>
-      </c>
-      <c r="N13" s="3" t="n">
-        <f aca="false">IF(L13&gt;M13,1,IF(L13=M13,"X",2))</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>81.629863</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="2" t="n">
         <v>80.799159</v>
       </c>
-      <c r="D14" s="3" t="n">
-        <f aca="false">IF(B14&gt;C14,1,IF(B14=C14,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
+      <c r="D14" s="2" t="n">
         <v>1912.4</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="E14" s="2" t="n">
         <v>1912.4</v>
       </c>
-      <c r="G14" s="3" t="str">
-        <f aca="false">IF(E14&gt;F14,1,IF(E14=F14,"X",2))</f>
-        <v>X</v>
-      </c>
-      <c r="H14" s="0" t="n">
+      <c r="F14" s="5" t="n">
         <v>0.217228</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="G14" s="5" t="n">
         <v>7.052754</v>
       </c>
-      <c r="J14" s="3" t="n">
-        <f aca="false">IF(H14&gt;I14,1,IF(H14=I14,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <f aca="false">I14/H14</f>
+      <c r="H14" s="2" t="n">
+        <f aca="false">G14/F14</f>
         <v>32.4670576537095</v>
       </c>
-      <c r="L14" s="0" t="n">
-        <v>81.702889</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>80.871441</v>
-      </c>
-      <c r="N14" s="3" t="n">
-        <f aca="false">IF(L14&gt;M14,1,IF(L14=M14,"X",2))</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>95.348837</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="2" t="n">
         <v>91.162791</v>
       </c>
-      <c r="D15" s="3" t="n">
-        <f aca="false">IF(B15&gt;C15,1,IF(B15=C15,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="D15" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="E15" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="G15" s="3" t="str">
-        <f aca="false">IF(E15&gt;F15,1,IF(E15=F15,"X",2))</f>
-        <v>X</v>
-      </c>
-      <c r="H15" s="0" t="n">
+      <c r="F15" s="5" t="n">
         <v>0.001298</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="G15" s="5" t="n">
         <v>0.005417</v>
       </c>
-      <c r="J15" s="3" t="n">
-        <f aca="false">IF(H15&gt;I15,1,IF(H15=I15,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <f aca="false">I15/H15</f>
+      <c r="H15" s="2" t="n">
+        <f aca="false">G15/F15</f>
         <v>4.173343605547</v>
       </c>
-      <c r="L15" s="0" t="n">
-        <v>96.244131</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>92.018779</v>
-      </c>
-      <c r="N15" s="3" t="n">
-        <f aca="false">IF(L15&gt;M15,1,IF(L15=M15,"X",2))</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>76.86747</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="2" t="n">
         <v>76.746988</v>
       </c>
-      <c r="D16" s="3" t="n">
-        <f aca="false">IF(B16&gt;C16,1,IF(B16=C16,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
+      <c r="D16" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="E16" s="2" t="n">
         <v>159.6</v>
       </c>
-      <c r="G16" s="3" t="n">
-        <f aca="false">IF(E16&gt;F16,1,IF(E16=F16,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H16" s="0" t="n">
+      <c r="F16" s="5" t="n">
         <v>0.005635</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="G16" s="5" t="n">
         <v>0.032833</v>
       </c>
-      <c r="J16" s="3" t="n">
-        <f aca="false">IF(H16&gt;I16,1,IF(H16=I16,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <f aca="false">I16/H16</f>
+      <c r="H16" s="2" t="n">
+        <f aca="false">G16/F16</f>
         <v>5.82661934338953</v>
       </c>
-      <c r="L16" s="0" t="n">
-        <v>83.072917</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>82.942708</v>
-      </c>
-      <c r="N16" s="3" t="n">
-        <f aca="false">IF(L16&gt;M16,1,IF(L16=M16,"X",2))</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>94.38962</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="2" t="n">
         <v>93.896199</v>
       </c>
-      <c r="D17" s="3" t="n">
-        <f aca="false">IF(B17&gt;C17,1,IF(B17=C17,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
+      <c r="D17" s="2" t="n">
         <v>163.1</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="E17" s="2" t="n">
         <v>161.9</v>
       </c>
-      <c r="G17" s="3" t="n">
-        <f aca="false">IF(E17&gt;F17,1,IF(E17=F17,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="0" t="n">
+      <c r="F17" s="5" t="n">
         <v>0.064551</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="G17" s="5" t="n">
         <v>0.221444</v>
       </c>
-      <c r="J17" s="3" t="n">
-        <f aca="false">IF(H17&gt;I17,1,IF(H17=I17,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <f aca="false">I17/H17</f>
+      <c r="H17" s="2" t="n">
+        <f aca="false">G17/F17</f>
         <v>3.43052779972425</v>
       </c>
-      <c r="L17" s="0" t="n">
-        <v>94.579747</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>94.085332</v>
-      </c>
-      <c r="N17" s="3" t="n">
-        <f aca="false">IF(L17&gt;M17,1,IF(L17=M17,"X",2))</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>94.013828</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="2" t="n">
         <v>94.304949</v>
       </c>
-      <c r="D18" s="3" t="n">
-        <f aca="false">IF(B18&gt;C18,1,IF(B18=C18,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="D18" s="2" t="n">
         <v>7739</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="E18" s="2" t="n">
         <v>7737.1</v>
       </c>
-      <c r="G18" s="3" t="n">
-        <f aca="false">IF(E18&gt;F18,1,IF(E18=F18,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="0" t="n">
+      <c r="F18" s="5" t="n">
         <v>0.181449</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="G18" s="5" t="n">
         <v>10.594656</v>
       </c>
-      <c r="J18" s="3" t="n">
-        <f aca="false">IF(H18&gt;I18,1,IF(H18=I18,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <f aca="false">I18/H18</f>
+      <c r="H18" s="2" t="n">
+        <f aca="false">G18/F18</f>
         <v>58.3891672040077</v>
       </c>
-      <c r="L18" s="0" t="n">
-        <v>98.91835</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>99.224658</v>
-      </c>
-      <c r="N18" s="3" t="n">
-        <f aca="false">IF(L18&gt;M18,1,IF(L18=M18,"X",2))</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>80.588453</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="2" t="n">
         <v>78.663953</v>
       </c>
-      <c r="D19" s="3" t="n">
-        <f aca="false">IF(B19&gt;C19,1,IF(B19=C19,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
+      <c r="D19" s="2" t="n">
         <v>228.2</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="E19" s="2" t="n">
         <v>228.2</v>
       </c>
-      <c r="G19" s="3" t="str">
-        <f aca="false">IF(E19&gt;F19,1,IF(E19=F19,"X",2))</f>
-        <v>X</v>
-      </c>
-      <c r="H19" s="0" t="n">
+      <c r="F19" s="5" t="n">
         <v>0.038</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="G19" s="5" t="n">
         <v>0.219135</v>
       </c>
-      <c r="J19" s="3" t="n">
-        <f aca="false">IF(H19&gt;I19,1,IF(H19=I19,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <f aca="false">I19/H19</f>
+      <c r="H19" s="2" t="n">
+        <f aca="false">G19/F19</f>
         <v>5.76671052631579</v>
       </c>
-      <c r="L19" s="0" t="n">
-        <v>80.588453</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>78.663953</v>
-      </c>
-      <c r="N19" s="3" t="n">
-        <f aca="false">IF(L19&gt;M19,1,IF(L19=M19,"X",2))</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>66.015625</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="2" t="n">
         <v>70.572917</v>
       </c>
-      <c r="D20" s="3" t="n">
-        <f aca="false">IF(B20&gt;C20,1,IF(B20=C20,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E20" s="0" t="n">
+      <c r="D20" s="2" t="n">
         <v>426.6</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="E20" s="2" t="n">
         <v>426.6</v>
       </c>
-      <c r="G20" s="3" t="str">
-        <f aca="false">IF(E20&gt;F20,1,IF(E20=F20,"X",2))</f>
-        <v>X</v>
-      </c>
-      <c r="H20" s="0" t="n">
+      <c r="F20" s="5" t="n">
         <v>0.008436</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="G20" s="5" t="n">
         <v>0.062232</v>
       </c>
-      <c r="J20" s="3" t="n">
-        <f aca="false">IF(H20&gt;I20,1,IF(H20=I20,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K20" s="2" t="n">
-        <f aca="false">I20/H20</f>
+      <c r="H20" s="2" t="n">
+        <f aca="false">G20/F20</f>
         <v>7.37695590327169</v>
       </c>
-      <c r="L20" s="0" t="n">
-        <v>68.236878</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>72.94751</v>
-      </c>
-      <c r="N20" s="3" t="n">
-        <f aca="false">IF(L20&gt;M20,1,IF(L20=M20,"X",2))</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="2" t="n">
         <v>54.621622</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="2" t="n">
         <v>53.243243</v>
       </c>
-      <c r="D21" s="3" t="n">
-        <f aca="false">IF(B21&gt;C21,1,IF(B21=C21,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
+      <c r="D21" s="2" t="n">
         <v>5059.5</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="E21" s="2" t="n">
         <v>5059.5</v>
       </c>
-      <c r="G21" s="3" t="str">
-        <f aca="false">IF(E21&gt;F21,1,IF(E21=F21,"X",2))</f>
-        <v>X</v>
-      </c>
-      <c r="H21" s="0" t="n">
+      <c r="F21" s="5" t="n">
         <v>0.172239</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="G21" s="5" t="n">
         <v>11.32908</v>
       </c>
-      <c r="J21" s="3" t="n">
-        <f aca="false">IF(H21&gt;I21,1,IF(H21=I21,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <f aca="false">I21/H21</f>
+      <c r="H21" s="2" t="n">
+        <f aca="false">G21/F21</f>
         <v>65.7753470468361</v>
       </c>
-      <c r="L21" s="0" t="n">
-        <v>79.053393</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>77.058478</v>
-      </c>
-      <c r="N21" s="3" t="n">
-        <f aca="false">IF(L21&gt;M21,1,IF(L21=M21,"X",2))</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="2" t="n">
         <v>60.822511</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="2" t="n">
         <v>62.121212</v>
       </c>
-      <c r="D22" s="3" t="n">
-        <f aca="false">IF(B22&gt;C22,1,IF(B22=C22,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="D22" s="2" t="n">
         <v>354</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="E22" s="2" t="n">
         <v>354</v>
       </c>
-      <c r="G22" s="3" t="str">
-        <f aca="false">IF(E22&gt;F22,1,IF(E22=F22,"X",2))</f>
-        <v>X</v>
-      </c>
-      <c r="H22" s="0" t="n">
+      <c r="F22" s="5" t="n">
         <v>0.006775</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="G22" s="5" t="n">
         <v>0.050998</v>
       </c>
-      <c r="J22" s="3" t="n">
-        <f aca="false">IF(H22&gt;I22,1,IF(H22=I22,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K22" s="2" t="n">
-        <f aca="false">I22/H22</f>
+      <c r="H22" s="2" t="n">
+        <f aca="false">G22/F22</f>
         <v>7.52738007380074</v>
       </c>
-      <c r="L22" s="0" t="n">
-        <v>65.046296</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>66.435185</v>
-      </c>
-      <c r="N22" s="3" t="n">
-        <f aca="false">IF(L22&gt;M22,1,IF(L22=M22,"X",2))</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="2" t="n">
         <v>64.832945</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="2" t="n">
         <v>51.235431</v>
       </c>
-      <c r="D23" s="3" t="n">
-        <f aca="false">IF(B23&gt;C23,1,IF(B23=C23,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
+      <c r="D23" s="2" t="n">
         <v>2137.4</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="E23" s="2" t="n">
         <v>1859.1</v>
       </c>
-      <c r="G23" s="3" t="n">
-        <f aca="false">IF(E23&gt;F23,1,IF(E23=F23,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H23" s="0" t="n">
+      <c r="F23" s="5" t="n">
         <v>0.256571</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="G23" s="5" t="n">
         <v>15.075422</v>
       </c>
-      <c r="J23" s="3" t="n">
-        <f aca="false">IF(H23&gt;I23,1,IF(H23=I23,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K23" s="2" t="n">
-        <f aca="false">I23/H23</f>
+      <c r="H23" s="2" t="n">
+        <f aca="false">G23/F23</f>
         <v>58.7573108418333</v>
       </c>
-      <c r="L23" s="0" t="n">
-        <v>65.228268</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>51.620479</v>
-      </c>
-      <c r="N23" s="3" t="n">
-        <f aca="false">IF(L23&gt;M23,1,IF(L23=M23,"X",2))</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="2" t="n">
         <v>90.38961</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="2" t="n">
         <v>88.484848</v>
       </c>
-      <c r="D24" s="3" t="n">
-        <f aca="false">IF(B24&gt;C24,1,IF(B24=C24,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="n">
+      <c r="D24" s="2" t="n">
         <v>884.9</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="E24" s="2" t="n">
         <v>863.3</v>
       </c>
-      <c r="G24" s="3" t="n">
-        <f aca="false">IF(E24&gt;F24,1,IF(E24=F24,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H24" s="0" t="n">
+      <c r="F24" s="5" t="n">
         <v>0.049834</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="G24" s="5" t="n">
         <v>0.407013</v>
       </c>
-      <c r="J24" s="3" t="n">
-        <f aca="false">IF(H24&gt;I24,1,IF(H24=I24,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K24" s="2" t="n">
-        <f aca="false">I24/H24</f>
+      <c r="H24" s="2" t="n">
+        <f aca="false">G24/F24</f>
         <v>8.16737568728177</v>
       </c>
-      <c r="L24" s="0" t="n">
-        <v>93.422819</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <v>91.53605</v>
-      </c>
-      <c r="N24" s="3" t="n">
-        <f aca="false">IF(L24&gt;M24,1,IF(L24=M24,"X",2))</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="2" t="n">
         <v>92.424007</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="2" t="n">
         <v>84.241108</v>
       </c>
-      <c r="D25" s="3" t="n">
-        <f aca="false">IF(B25&gt;C25,1,IF(B25=C25,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
+      <c r="D25" s="2" t="n">
         <v>71.9</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="E25" s="2" t="n">
         <v>70.1</v>
       </c>
-      <c r="G25" s="3" t="n">
-        <f aca="false">IF(E25&gt;F25,1,IF(E25=F25,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H25" s="0" t="n">
+      <c r="F25" s="5" t="n">
         <v>0.61837</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="G25" s="5" t="n">
         <v>1.451691</v>
       </c>
-      <c r="J25" s="3" t="n">
-        <f aca="false">IF(H25&gt;I25,1,IF(H25=I25,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K25" s="2" t="n">
-        <f aca="false">I25/H25</f>
+      <c r="H25" s="2" t="n">
+        <f aca="false">G25/F25</f>
         <v>2.3476090366609</v>
       </c>
-      <c r="L25" s="0" t="n">
-        <v>92.435163</v>
-      </c>
-      <c r="M25" s="0" t="n">
-        <v>84.251276</v>
-      </c>
-      <c r="N25" s="3" t="n">
-        <f aca="false">IF(L25&gt;M25,1,IF(L25=M25,"X",2))</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="2" t="n">
         <v>80.661301</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="2" t="n">
         <v>80.661301</v>
       </c>
-      <c r="D26" s="3" t="str">
-        <f aca="false">IF(B26&gt;C26,1,IF(B26=C26,"X",2))</f>
-        <v>X</v>
-      </c>
-      <c r="E26" s="0" t="n">
+      <c r="D26" s="2" t="n">
         <v>1379.5</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="E26" s="2" t="n">
         <v>1379.6</v>
       </c>
-      <c r="G26" s="3" t="n">
-        <f aca="false">IF(E26&gt;F26,1,IF(E26=F26,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="H26" s="0" t="n">
+      <c r="F26" s="5" t="n">
         <v>0.28493</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="G26" s="5" t="n">
         <v>3.755089</v>
       </c>
-      <c r="J26" s="3" t="n">
-        <f aca="false">IF(H26&gt;I26,1,IF(H26=I26,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K26" s="2" t="n">
-        <f aca="false">I26/H26</f>
+      <c r="H26" s="2" t="n">
+        <f aca="false">G26/F26</f>
         <v>13.1789878215702</v>
       </c>
-      <c r="L26" s="0" t="n">
-        <v>84.657534</v>
-      </c>
-      <c r="M26" s="0" t="n">
-        <v>84.657534</v>
-      </c>
-      <c r="N26" s="3" t="str">
-        <f aca="false">IF(L26&gt;M26,1,IF(L26=M26,"X",2))</f>
-        <v>X</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="2" t="n">
         <v>87.4</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="2" t="n">
         <v>85.836364</v>
       </c>
-      <c r="D27" s="3" t="n">
-        <f aca="false">IF(B27&gt;C27,1,IF(B27=C27,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="0" t="n">
+      <c r="D27" s="2" t="n">
         <v>3694.8</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="E27" s="2" t="n">
         <v>3473.3</v>
       </c>
-      <c r="G27" s="3" t="n">
-        <f aca="false">IF(E27&gt;F27,1,IF(E27=F27,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H27" s="0" t="n">
+      <c r="F27" s="5" t="n">
         <v>0.25783</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="G27" s="5" t="n">
         <v>10.716644</v>
       </c>
-      <c r="J27" s="3" t="n">
-        <f aca="false">IF(H27&gt;I27,1,IF(H27=I27,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K27" s="2" t="n">
-        <f aca="false">I27/H27</f>
+      <c r="H27" s="2" t="n">
+        <f aca="false">G27/F27</f>
         <v>41.5647674824497</v>
       </c>
-      <c r="L27" s="0" t="n">
-        <v>93.104784</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <v>91.634317</v>
-      </c>
-      <c r="N27" s="3" t="n">
-        <f aca="false">IF(L27&gt;M27,1,IF(L27=M27,"X",2))</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="2" t="n">
         <v>91.958333</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="2" t="n">
         <v>92.097222</v>
       </c>
-      <c r="D28" s="3" t="n">
-        <f aca="false">IF(B28&gt;C28,1,IF(B28=C28,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E28" s="0" t="n">
+      <c r="D28" s="2" t="n">
         <v>941.2</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="E28" s="2" t="n">
         <v>943.9</v>
       </c>
-      <c r="G28" s="3" t="n">
-        <f aca="false">IF(E28&gt;F28,1,IF(E28=F28,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="H28" s="0" t="n">
+      <c r="F28" s="5" t="n">
         <v>0.131644</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="G28" s="5" t="n">
         <v>1.259747</v>
       </c>
-      <c r="J28" s="3" t="n">
-        <f aca="false">IF(H28&gt;I28,1,IF(H28=I28,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K28" s="2" t="n">
-        <f aca="false">I28/H28</f>
+      <c r="H28" s="2" t="n">
+        <f aca="false">G28/F28</f>
         <v>9.5693461152806</v>
       </c>
-      <c r="L28" s="0" t="n">
-        <v>93.214135</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>93.35492</v>
-      </c>
-      <c r="N28" s="3" t="n">
-        <f aca="false">IF(L28&gt;M28,1,IF(L28=M28,"X",2))</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="2" t="n">
         <v>34.135135</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="2" t="n">
         <v>34.932432</v>
       </c>
-      <c r="D29" s="3" t="n">
-        <f aca="false">IF(B29&gt;C29,1,IF(B29=C29,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E29" s="0" t="n">
+      <c r="D29" s="2" t="n">
         <v>6654.2</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="E29" s="2" t="n">
         <v>6654.2</v>
       </c>
-      <c r="G29" s="3" t="str">
-        <f aca="false">IF(E29&gt;F29,1,IF(E29=F29,"X",2))</f>
-        <v>X</v>
-      </c>
-      <c r="H29" s="0" t="n">
+      <c r="F29" s="5" t="n">
         <v>0.175404</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="G29" s="5" t="n">
         <v>11.331774</v>
       </c>
-      <c r="J29" s="3" t="n">
-        <f aca="false">IF(H29&gt;I29,1,IF(H29=I29,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K29" s="2" t="n">
-        <f aca="false">I29/H29</f>
+      <c r="H29" s="2" t="n">
+        <f aca="false">G29/F29</f>
         <v>64.6038516795512</v>
       </c>
-      <c r="L29" s="0" t="n">
-        <v>90.994236</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <v>93.119597</v>
-      </c>
-      <c r="N29" s="3" t="n">
-        <f aca="false">IF(L29&gt;M29,1,IF(L29=M29,"X",2))</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="2" t="n">
         <v>51.891253</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="2" t="n">
         <v>54.491726</v>
       </c>
-      <c r="D30" s="3" t="n">
-        <f aca="false">IF(B30&gt;C30,1,IF(B30=C30,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E30" s="0" t="n">
+      <c r="D30" s="2" t="n">
         <v>707.8</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="E30" s="2" t="n">
         <v>683.2</v>
       </c>
-      <c r="G30" s="3" t="n">
-        <f aca="false">IF(E30&gt;F30,1,IF(E30=F30,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H30" s="0" t="n">
+      <c r="F30" s="5" t="n">
         <v>0.0187</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="G30" s="5" t="n">
         <v>0.187486</v>
       </c>
-      <c r="J30" s="3" t="n">
-        <f aca="false">IF(H30&gt;I30,1,IF(H30=I30,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K30" s="2" t="n">
-        <f aca="false">I30/H30</f>
+      <c r="H30" s="2" t="n">
+        <f aca="false">G30/F30</f>
         <v>10.0259893048128</v>
       </c>
-      <c r="L30" s="0" t="n">
-        <v>63.531114</v>
-      </c>
-      <c r="M30" s="0" t="n">
-        <v>67.103348</v>
-      </c>
-      <c r="N30" s="3" t="n">
-        <f aca="false">IF(L30&gt;M30,1,IF(L30=M30,"X",2))</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="2" t="n">
         <v>93.434343</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="2" t="n">
         <v>93.030303</v>
       </c>
-      <c r="D31" s="3" t="n">
-        <f aca="false">IF(B31&gt;C31,1,IF(B31=C31,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
+      <c r="D31" s="2" t="n">
         <v>649.7</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="E31" s="2" t="n">
         <v>638.8</v>
       </c>
-      <c r="G31" s="3" t="n">
-        <f aca="false">IF(E31&gt;F31,1,IF(E31=F31,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H31" s="0" t="n">
+      <c r="F31" s="5" t="n">
         <v>0.014694</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="G31" s="5" t="n">
         <v>0.134568</v>
       </c>
-      <c r="J31" s="3" t="n">
-        <f aca="false">IF(H31&gt;I31,1,IF(H31=I31,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K31" s="2" t="n">
-        <f aca="false">I31/H31</f>
+      <c r="H31" s="2" t="n">
+        <f aca="false">G31/F31</f>
         <v>9.15802368313597</v>
       </c>
-      <c r="L31" s="0" t="n">
-        <v>93.718338</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>93.31307</v>
-      </c>
-      <c r="N31" s="3" t="n">
-        <f aca="false">IF(L31&gt;M31,1,IF(L31=M31,"X",2))</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="2" t="n">
         <v>56.785491</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="2" t="n">
         <v>59.59975</v>
       </c>
-      <c r="D32" s="3" t="n">
-        <f aca="false">IF(B32&gt;C32,1,IF(B32=C32,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E32" s="0" t="n">
+      <c r="D32" s="2" t="n">
         <v>763.4</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="E32" s="2" t="n">
         <v>614.2</v>
       </c>
-      <c r="G32" s="3" t="n">
-        <f aca="false">IF(E32&gt;F32,1,IF(E32=F32,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H32" s="0" t="n">
+      <c r="F32" s="5" t="n">
         <v>0.025199</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="G32" s="5" t="n">
         <v>0.28823</v>
       </c>
-      <c r="J32" s="3" t="n">
-        <f aca="false">IF(H32&gt;I32,1,IF(H32=I32,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K32" s="2" t="n">
-        <f aca="false">I32/H32</f>
+      <c r="H32" s="2" t="n">
+        <f aca="false">G32/F32</f>
         <v>11.4381523076313</v>
       </c>
-      <c r="L32" s="0" t="n">
-        <v>57.614213</v>
-      </c>
-      <c r="M32" s="0" t="n">
-        <v>60.469543</v>
-      </c>
-      <c r="N32" s="3" t="n">
-        <f aca="false">IF(L32&gt;M32,1,IF(L32=M32,"X",2))</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="2" t="n">
         <v>49.795835</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="2" t="n">
         <v>53.082891</v>
       </c>
-      <c r="D33" s="3" t="n">
-        <f aca="false">IF(B33&gt;C33,1,IF(B33=C33,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E33" s="0" t="n">
+      <c r="D33" s="2" t="n">
         <v>1043.2</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="E33" s="2" t="n">
         <v>651.5</v>
       </c>
-      <c r="G33" s="3" t="n">
-        <f aca="false">IF(E33&gt;F33,1,IF(E33=F33,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H33" s="0" t="n">
+      <c r="F33" s="5" t="n">
         <v>0.065467</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="G33" s="5" t="n">
         <v>1.702653</v>
       </c>
-      <c r="J33" s="3" t="n">
-        <f aca="false">IF(H33&gt;I33,1,IF(H33=I33,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K33" s="2" t="n">
-        <f aca="false">I33/H33</f>
+      <c r="H33" s="2" t="n">
+        <f aca="false">G33/F33</f>
         <v>26.007805459239</v>
       </c>
-      <c r="L33" s="0" t="n">
-        <v>49.897709</v>
-      </c>
-      <c r="M33" s="0" t="n">
-        <v>53.213262</v>
-      </c>
-      <c r="N33" s="3" t="n">
-        <f aca="false">IF(L33&gt;M33,1,IF(L33=M33,"X",2))</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="n">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="n">
         <f aca="false">AVERAGE(B4:B33)</f>
         <v>67.3652935333333</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="2" t="n">
         <f aca="false">AVERAGE(C4:C33)</f>
         <v>66.3727878666667</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="D34" s="2" t="n">
+        <f aca="false">AVERAGE(D4:D33)</f>
+        <v>2380.35666666667</v>
+      </c>
+      <c r="E34" s="2" t="n">
         <f aca="false">AVERAGE(E4:E33)</f>
-        <v>2380.35666666667</v>
-      </c>
-      <c r="F34" s="0" t="n">
+        <v>2255.93333333333</v>
+      </c>
+      <c r="F34" s="5" t="n">
         <f aca="false">AVERAGE(F4:F33)</f>
-        <v>2255.93333333333</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <f aca="false">E34/F34</f>
-        <v>1.05515381660215</v>
-      </c>
-      <c r="H34" s="0" t="n">
+        <v>0.155357433333333</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <f aca="false">AVERAGE(G4:G33)</f>
+        <v>9.0555488</v>
+      </c>
+      <c r="H34" s="2" t="n">
         <f aca="false">AVERAGE(H4:H33)</f>
-        <v>0.155357433333333</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <f aca="false">AVERAGE(I4:I33)</f>
-        <v>9.0555488</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <f aca="false">AVERAGE(K4:K33)</f>
         <v>26.4479241513589</v>
-      </c>
-      <c r="L34" s="0" t="n">
-        <f aca="false">AVERAGE(L4:L33)</f>
-        <v>78.5396409666667</v>
-      </c>
-      <c r="M34" s="0" t="n">
-        <f aca="false">AVERAGE(M4:M33)</f>
-        <v>78.5727652666667</v>
       </c>
     </row>
   </sheetData>
